--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
@@ -701,100 +701,100 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0121840640905508</v>
+        <v>0.01969137151149705</v>
       </c>
       <c r="G2">
-        <v>0.08922939557640905</v>
+        <v>0.08097428377350389</v>
       </c>
       <c r="H2">
-        <v>0.2832256969257736</v>
+        <v>0.2352815998102858</v>
       </c>
       <c r="I2">
-        <v>0.05694755999134838</v>
+        <v>0.05529686945568859</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.009159946831974417</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.005137416541257301</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.006002389433270493</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.004295358932320784</v>
       </c>
       <c r="N2">
-        <v>0.06100340822144994</v>
+        <v>0.05852294670709157</v>
       </c>
       <c r="O2">
-        <v>0.009704892186060191</v>
+        <v>0.01771940421152875</v>
       </c>
       <c r="P2">
-        <v>0.1292570666351432</v>
+        <v>0.1128128417527778</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0001254461106866714</v>
       </c>
       <c r="R2">
-        <v>0.05427572452530702</v>
+        <v>0.05317165491917919</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.005360663265584429</v>
       </c>
       <c r="T2">
-        <v>0.166164902802697</v>
+        <v>0.1421698403147462</v>
       </c>
       <c r="U2">
-        <v>0.002108333739221937</v>
+        <v>0.01167699754245957</v>
       </c>
       <c r="V2">
-        <v>0.02065941416122502</v>
+        <v>0.02643278107849018</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0001170723926688483</v>
       </c>
       <c r="X2">
-        <v>0.001108433611980476</v>
+        <v>0.01088166328161918</v>
       </c>
       <c r="Y2">
-        <v>0.008184638797427743</v>
+        <v>0.01651017383721747</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.0006253994896416301</v>
       </c>
       <c r="AA2">
-        <v>0.1012833523021285</v>
+        <v>0.09056216610441296</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.004242228432271695</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.005426671332171754</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3.814629468679103E-05</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.008655074134334766</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.002918272162404801</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.001123929746305987</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0008093123648989942</v>
       </c>
       <c r="AI2">
-        <v>0.00466311643327734</v>
+        <v>0.0137091067003912</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>9.70637337785972E-05</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.0004519078008526727</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1055350176767106</v>
+        <v>0.105012504858888</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3103978462646136</v>
+        <v>0.3063517013342881</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -826,52 +826,52 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00275752704865023</v>
+        <v>0.004002782785600381</v>
       </c>
       <c r="K3">
-        <v>0.01357331775101693</v>
+        <v>0.01463254233871631</v>
       </c>
       <c r="L3">
-        <v>0.0399150992472909</v>
+        <v>0.04052124629124751</v>
       </c>
       <c r="M3">
-        <v>0.07501213579482692</v>
+        <v>0.07501461527310056</v>
       </c>
       <c r="N3">
-        <v>0.06338371578751906</v>
+        <v>0.06358620360521597</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.07295185634979738</v>
+        <v>0.07298977254864779</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1663957528291079</v>
+        <v>0.1648264379034959</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01323194279838652</v>
+        <v>0.01429703902104176</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0004537126269567694</v>
+        <v>0.001738593875931144</v>
       </c>
       <c r="W3">
-        <v>0.02166589749702399</v>
+        <v>0.02258593005041157</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1147261783280992</v>
+        <v>0.1140455779301839</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.000395052183231223</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2001272947229348</v>
+        <v>0.1944484092586509</v>
       </c>
       <c r="G4">
-        <v>0.1145502844178472</v>
+        <v>0.1125030801823566</v>
       </c>
       <c r="H4">
-        <v>0.1561787415873084</v>
+        <v>0.1523649263666129</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000342765254992858</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -948,52 +948,52 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.05224032352961187</v>
+        <v>0.05283740324979946</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1598342015039639</v>
+        <v>0.1558652574102849</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.001013970548002591</v>
       </c>
       <c r="R4">
-        <v>0.0442379495556518</v>
+        <v>0.0451746306622796</v>
       </c>
       <c r="S4">
-        <v>0.08492486620232657</v>
+        <v>0.08413489302509441</v>
       </c>
       <c r="T4">
-        <v>0.06038485351835393</v>
+        <v>0.06063629909483857</v>
       </c>
       <c r="U4">
-        <v>0.01457506691445173</v>
+        <v>0.0167705689789033</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.009408114883704057</v>
+        <v>0.01182288988878821</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.003039437697610227</v>
+        <v>0.005724483950854661</v>
       </c>
       <c r="Z4">
-        <v>0.06154909923823473</v>
+        <v>0.06175113704373601</v>
       </c>
       <c r="AA4">
-        <v>0.03806972138962724</v>
+        <v>0.03926816717307191</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.0002687948056036937</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0008800448383736487</v>
+        <v>0.003656730499030445</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.00141559260709922</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2210727623811943</v>
+        <v>0.2189953413326538</v>
       </c>
       <c r="G5">
-        <v>0.1022687849909022</v>
+        <v>0.1017988559970753</v>
       </c>
       <c r="H5">
-        <v>0.1792287689774957</v>
+        <v>0.1777175233080248</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003998915462083324</v>
+        <v>0.004858639211837184</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03581499511214403</v>
+        <v>0.03624422742235972</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1572809883640796</v>
+        <v>0.1560667098814796</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1076,22 +1076,22 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.04371799225233787</v>
+        <v>0.04404029207266266</v>
       </c>
       <c r="S5">
-        <v>0.07988420072901989</v>
+        <v>0.07971714914838619</v>
       </c>
       <c r="T5">
-        <v>0.06859404301266761</v>
+        <v>0.06857975432115737</v>
       </c>
       <c r="U5">
-        <v>0.009669896348997901</v>
+        <v>0.01045288818355502</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.007404544147090041</v>
+        <v>0.008218187612557893</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.06017408772060775</v>
+        <v>0.06027372628583037</v>
       </c>
       <c r="AA5">
-        <v>0.02683513440648752</v>
+        <v>0.02738586984356701</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004054886094891918</v>
+        <v>0.004913852527007821</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.0007369828518452574</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08321948940234518</v>
+        <v>0.08457279723741198</v>
       </c>
       <c r="G6">
-        <v>0.01371716348530353</v>
+        <v>0.01089053728728427</v>
       </c>
       <c r="H6">
-        <v>0.3742390443889134</v>
+        <v>0.39309453687941</v>
       </c>
       <c r="I6">
-        <v>0.003444437425260722</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03417921869716412</v>
+        <v>0.03258319938658962</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1174,34 +1174,34 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01348852287713748</v>
+        <v>0.01064814602190194</v>
       </c>
       <c r="N6">
-        <v>0.01755558648863176</v>
+        <v>0.01495980659299586</v>
       </c>
       <c r="O6">
-        <v>0.08852257815998092</v>
+        <v>0.09019481864781932</v>
       </c>
       <c r="P6">
-        <v>0.0482915235685217</v>
+        <v>0.04754423129893117</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.07232279725165731</v>
+        <v>0.07302076796285453</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1599966205821402</v>
+        <v>0.1659673759536276</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01801966637521168</v>
+        <v>0.01545179667231237</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.004177594177326839</v>
+        <v>0.0007772494758579201</v>
       </c>
       <c r="Z6">
-        <v>0.01419644931112323</v>
+        <v>0.01139864780506191</v>
       </c>
       <c r="AA6">
-        <v>0.04956669128410442</v>
+        <v>0.04889608877794165</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002059178573404361</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.003003437951772948</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09197485937058973</v>
+        <v>0.08858511805504128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1389966346849133</v>
+        <v>0.1310713898163878</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1281,58 +1281,58 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.04163972620312362</v>
+        <v>0.04310507965578723</v>
       </c>
       <c r="L7">
-        <v>0.003993230301732169</v>
+        <v>0.009089791099854829</v>
       </c>
       <c r="M7">
-        <v>0.07997298557010124</v>
+        <v>0.07774088964119807</v>
       </c>
       <c r="N7">
-        <v>0.05485460674118044</v>
+        <v>0.05504531377243882</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.03422391656332299</v>
+        <v>0.0364045648074887</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.2070922802619819</v>
+        <v>0.1925988435208076</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.0628986729267115</v>
+        <v>0.06231348643797884</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.0004179499147222842</v>
       </c>
       <c r="V7">
-        <v>0.07213701326773868</v>
+        <v>0.07066073908271531</v>
       </c>
       <c r="W7">
-        <v>0.01957095010926094</v>
+        <v>0.02316495590893791</v>
       </c>
       <c r="X7">
-        <v>0.003382685879079592</v>
+        <v>0.008538136975998511</v>
       </c>
       <c r="Y7">
-        <v>0.1644072689822333</v>
+        <v>0.1540310315391295</v>
       </c>
       <c r="Z7">
-        <v>0.006494723304225705</v>
+        <v>0.01135000162577839</v>
       </c>
       <c r="AA7">
-        <v>0.01627951671792255</v>
+        <v>0.02019099900037823</v>
       </c>
       <c r="AB7">
-        <v>0.002080929115882338</v>
+        <v>0.007361941665662747</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.004747461087045328</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.003582306392648577</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1283957996129114</v>
+        <v>0.1212657813052961</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1127063901309665</v>
+        <v>0.1071381900316964</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1388,64 +1388,64 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0006138436154990511</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.063916533795146</v>
+        <v>0.06320516951850666</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1060772641086132</v>
+        <v>0.1011689670948634</v>
       </c>
       <c r="N8">
-        <v>0.04393710674913413</v>
+        <v>0.04521461483819315</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.003750741504423557</v>
       </c>
       <c r="P8">
-        <v>0.03142800229733422</v>
+        <v>0.033950741899115</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.002724248683616666</v>
       </c>
       <c r="R8">
-        <v>0.1948601268802926</v>
+        <v>0.1811138495827473</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.05424741058850489</v>
+        <v>0.05449856900593149</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.005509761824618098</v>
       </c>
       <c r="V8">
-        <v>0.06016920182114693</v>
+        <v>0.05983086951339341</v>
       </c>
       <c r="W8">
-        <v>0.02199003994770691</v>
+        <v>0.02545229110116766</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.1655065347189693</v>
+        <v>0.1546822905782902</v>
       </c>
       <c r="Z8">
-        <v>0.005843531205866459</v>
+        <v>0.01091310297794145</v>
       </c>
       <c r="AA8">
-        <v>0.008472251834721362</v>
+        <v>0.0132801449408451</v>
       </c>
       <c r="AB8">
-        <v>0.001860331900664007</v>
+        <v>0.007326415294766093</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0005894744080221802</v>
+        <v>0.006182066602503533</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.002178340086585313</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07516673184542731</v>
+        <v>0.0719265304267115</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.002264967935090885</v>
       </c>
       <c r="F9">
-        <v>0.1838846518761378</v>
+        <v>0.1631018819675576</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.001940506031883633</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1507,58 +1507,58 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.01118007940779629</v>
+        <v>0.01826467294935205</v>
       </c>
       <c r="L9">
-        <v>0.006218282065201848</v>
+        <v>0.0141035041479466</v>
       </c>
       <c r="M9">
-        <v>0.04062246385773892</v>
+        <v>0.04295627624406161</v>
       </c>
       <c r="N9">
-        <v>0.1059761369432946</v>
+        <v>0.09776457386765382</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.02328317571161517</v>
+        <v>0.02841483089867342</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.2100892660280738</v>
+        <v>0.1850781569608622</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.07105811966814016</v>
+        <v>0.0684808780494094</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.002812145490486188</v>
       </c>
       <c r="V9">
-        <v>0.07692797194653057</v>
+        <v>0.07340357933751264</v>
       </c>
       <c r="W9">
-        <v>0.01040078487796588</v>
+        <v>0.01761112427319015</v>
       </c>
       <c r="X9">
-        <v>0.008473149954994715</v>
+        <v>0.01599452977161523</v>
       </c>
       <c r="Y9">
-        <v>0.1412807865691682</v>
+        <v>0.127372515592037</v>
       </c>
       <c r="Z9">
-        <v>0.019988420945697</v>
+        <v>0.02565171306181074</v>
       </c>
       <c r="AA9">
-        <v>0.01544997830221785</v>
+        <v>0.02184558704918751</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.006050254426863527</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.004644345409459696</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.006112345854107993</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.004205080254526505</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0777590573538135</v>
+        <v>0.07437514967015284</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1492652390092796</v>
+        <v>0.1342075933627936</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1617,61 +1617,61 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.004794164429852187</v>
       </c>
       <c r="K10">
-        <v>0.02594656214800107</v>
+        <v>0.03102130067128073</v>
       </c>
       <c r="L10">
-        <v>0.01337217064417107</v>
+        <v>0.020499740797658</v>
       </c>
       <c r="M10">
-        <v>0.07709457057341094</v>
+        <v>0.07381914364448497</v>
       </c>
       <c r="N10">
-        <v>0.06446930993809191</v>
+        <v>0.0632550192767857</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.01738378959973232</v>
+        <v>0.02385644310951472</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.2063440750386834</v>
+        <v>0.1819680269883209</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.08586000491836863</v>
+        <v>0.0811535774618741</v>
       </c>
       <c r="U10">
-        <v>0.01119466920271337</v>
+        <v>0.01867772724064265</v>
       </c>
       <c r="V10">
-        <v>0.07453716070600404</v>
+        <v>0.07167924359181685</v>
       </c>
       <c r="W10">
-        <v>0.03248600600903053</v>
+        <v>0.03649314796528768</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.004164853106163836</v>
       </c>
       <c r="Y10">
-        <v>0.1435382657766989</v>
+        <v>0.1294155768470936</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.006876866564638798</v>
       </c>
       <c r="AA10">
-        <v>0.0207491190820006</v>
+        <v>0.02667236590238851</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.002751559186098244</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.001344340342976787</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.00368552386132313</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.009288635978852322</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1358400428342964</v>
+        <v>0.1241551170640771</v>
       </c>
       <c r="G11">
-        <v>0.03102052220806364</v>
+        <v>0.03464166669175889</v>
       </c>
       <c r="H11">
-        <v>0.09728875042636956</v>
+        <v>0.09123320348224703</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0008737079474742135</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1739,55 +1739,55 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.05116421370951357</v>
+        <v>0.05184391412389475</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.004680028121960281</v>
       </c>
       <c r="O11">
-        <v>0.1260861343220875</v>
+        <v>0.1158255044086531</v>
       </c>
       <c r="P11">
-        <v>0.02508515799181775</v>
+        <v>0.0295730026963657</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.02799572158763379</v>
+        <v>0.03205855680339671</v>
       </c>
       <c r="S11">
-        <v>0.01321409153093948</v>
+        <v>0.0194353860371422</v>
       </c>
       <c r="T11">
-        <v>0.1249616928364484</v>
+        <v>0.1148652573428395</v>
       </c>
       <c r="U11">
-        <v>0.004662414115311072</v>
+        <v>0.01213245097914355</v>
       </c>
       <c r="V11">
-        <v>0.0622026466603937</v>
+        <v>0.06127048099076789</v>
       </c>
       <c r="W11">
-        <v>0.04540347760893012</v>
+        <v>0.04692437850718115</v>
       </c>
       <c r="X11">
-        <v>0.03396307919645958</v>
+        <v>0.03715454241733798</v>
       </c>
       <c r="Y11">
-        <v>0.0783204101367668</v>
+        <v>0.07503467884662045</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.002165772023536056</v>
       </c>
       <c r="AA11">
-        <v>0.131956295513783</v>
+        <v>0.1208384865265931</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01083534932118565</v>
+        <v>0.0174039951142567</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.001985462501003334</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.00590440737375035</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1957,100 +1957,100 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0121840640905508</v>
+        <v>0.01969137151149705</v>
       </c>
       <c r="G2">
-        <v>0.1014134596669599</v>
+        <v>0.1006656552850009</v>
       </c>
       <c r="H2">
-        <v>0.3846391565927335</v>
+        <v>0.3359472550952867</v>
       </c>
       <c r="I2">
-        <v>0.4415867165840818</v>
+        <v>0.3912441245509753</v>
       </c>
       <c r="J2">
-        <v>0.4415867165840818</v>
+        <v>0.4004040713829497</v>
       </c>
       <c r="K2">
-        <v>0.4415867165840818</v>
+        <v>0.405541487924207</v>
       </c>
       <c r="L2">
-        <v>0.4415867165840818</v>
+        <v>0.4115438773574775</v>
       </c>
       <c r="M2">
-        <v>0.4415867165840818</v>
+        <v>0.4158392362897983</v>
       </c>
       <c r="N2">
-        <v>0.5025901248055318</v>
+        <v>0.4743621829968899</v>
       </c>
       <c r="O2">
-        <v>0.512295016991592</v>
+        <v>0.4920815872084186</v>
       </c>
       <c r="P2">
-        <v>0.6415520836267352</v>
+        <v>0.6048944289611964</v>
       </c>
       <c r="Q2">
-        <v>0.6415520836267352</v>
+        <v>0.605019875071883</v>
       </c>
       <c r="R2">
-        <v>0.6958278081520423</v>
+        <v>0.6581915299910622</v>
       </c>
       <c r="S2">
-        <v>0.6958278081520423</v>
+        <v>0.6635521932566466</v>
       </c>
       <c r="T2">
-        <v>0.8619927109547392</v>
+        <v>0.8057220335713928</v>
       </c>
       <c r="U2">
-        <v>0.8641010446939611</v>
+        <v>0.8173990311138524</v>
       </c>
       <c r="V2">
-        <v>0.8847604588551861</v>
+        <v>0.8438318121923425</v>
       </c>
       <c r="W2">
-        <v>0.8847604588551861</v>
+        <v>0.8439488845850114</v>
       </c>
       <c r="X2">
-        <v>0.8858688924671665</v>
+        <v>0.8548305478666306</v>
       </c>
       <c r="Y2">
-        <v>0.8940535312645942</v>
+        <v>0.871340721703848</v>
       </c>
       <c r="Z2">
-        <v>0.8940535312645942</v>
+        <v>0.8719661211934896</v>
       </c>
       <c r="AA2">
-        <v>0.9953368835667227</v>
+        <v>0.9625282872979025</v>
       </c>
       <c r="AB2">
-        <v>0.9953368835667227</v>
+        <v>0.9667705157301743</v>
       </c>
       <c r="AC2">
-        <v>0.9953368835667227</v>
+        <v>0.972197187062346</v>
       </c>
       <c r="AD2">
-        <v>0.9953368835667227</v>
+        <v>0.9722353333570328</v>
       </c>
       <c r="AE2">
-        <v>0.9953368835667227</v>
+        <v>0.9808904074913676</v>
       </c>
       <c r="AF2">
-        <v>0.9953368835667227</v>
+        <v>0.9838086796537724</v>
       </c>
       <c r="AG2">
-        <v>0.9953368835667227</v>
+        <v>0.9849326094000784</v>
       </c>
       <c r="AH2">
-        <v>0.9953368835667227</v>
+        <v>0.9857419217649774</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9994510284653686</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9995480921991472</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2064,91 +2064,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1055350176767106</v>
+        <v>0.105012504858888</v>
       </c>
       <c r="E3">
-        <v>0.1055350176767106</v>
+        <v>0.105012504858888</v>
       </c>
       <c r="F3">
-        <v>0.4159328639413242</v>
+        <v>0.4113642061931761</v>
       </c>
       <c r="G3">
-        <v>0.4159328639413242</v>
+        <v>0.4113642061931761</v>
       </c>
       <c r="H3">
-        <v>0.4159328639413242</v>
+        <v>0.4113642061931761</v>
       </c>
       <c r="I3">
-        <v>0.4159328639413242</v>
+        <v>0.4113642061931761</v>
       </c>
       <c r="J3">
-        <v>0.4186903909899745</v>
+        <v>0.4153669889787765</v>
       </c>
       <c r="K3">
-        <v>0.4322637087409914</v>
+        <v>0.4299995313174928</v>
       </c>
       <c r="L3">
-        <v>0.4721788079882823</v>
+        <v>0.4705207776087403</v>
       </c>
       <c r="M3">
-        <v>0.5471909437831093</v>
+        <v>0.5455353928818409</v>
       </c>
       <c r="N3">
-        <v>0.6105746595706283</v>
+        <v>0.6091215964870569</v>
       </c>
       <c r="O3">
-        <v>0.6105746595706283</v>
+        <v>0.6091215964870569</v>
       </c>
       <c r="P3">
-        <v>0.6835265159204257</v>
+        <v>0.6821113690357047</v>
       </c>
       <c r="Q3">
-        <v>0.6835265159204257</v>
+        <v>0.6821113690357047</v>
       </c>
       <c r="R3">
-        <v>0.8499222687495336</v>
+        <v>0.8469378069392005</v>
       </c>
       <c r="S3">
-        <v>0.8499222687495336</v>
+        <v>0.8469378069392005</v>
       </c>
       <c r="T3">
-        <v>0.86315421154792</v>
+        <v>0.8612348459602422</v>
       </c>
       <c r="U3">
-        <v>0.86315421154792</v>
+        <v>0.8612348459602422</v>
       </c>
       <c r="V3">
-        <v>0.8636079241748769</v>
+        <v>0.8629734398361734</v>
       </c>
       <c r="W3">
-        <v>0.8852738216719008</v>
+        <v>0.8855593698865849</v>
       </c>
       <c r="X3">
-        <v>0.8852738216719008</v>
+        <v>0.8855593698865849</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2183,97 +2183,97 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2001272947229348</v>
+        <v>0.1944484092586509</v>
       </c>
       <c r="G4">
-        <v>0.314677579140782</v>
+        <v>0.3069514894410075</v>
       </c>
       <c r="H4">
-        <v>0.4708563207280904</v>
+        <v>0.4593164158076204</v>
       </c>
       <c r="I4">
-        <v>0.4708563207280904</v>
+        <v>0.4596591810626133</v>
       </c>
       <c r="J4">
-        <v>0.4708563207280904</v>
+        <v>0.4596591810626133</v>
       </c>
       <c r="K4">
-        <v>0.4708563207280904</v>
+        <v>0.4596591810626133</v>
       </c>
       <c r="L4">
-        <v>0.4708563207280904</v>
+        <v>0.4596591810626133</v>
       </c>
       <c r="M4">
-        <v>0.5230966442577022</v>
+        <v>0.5124965843124127</v>
       </c>
       <c r="N4">
-        <v>0.5230966442577022</v>
+        <v>0.5124965843124127</v>
       </c>
       <c r="O4">
-        <v>0.6829308457616661</v>
+        <v>0.6683618417226976</v>
       </c>
       <c r="P4">
-        <v>0.6829308457616661</v>
+        <v>0.6683618417226976</v>
       </c>
       <c r="Q4">
-        <v>0.6829308457616661</v>
+        <v>0.6693758122707002</v>
       </c>
       <c r="R4">
-        <v>0.7271687953173178</v>
+        <v>0.7145504429329798</v>
       </c>
       <c r="S4">
-        <v>0.8120936615196443</v>
+        <v>0.7986853359580741</v>
       </c>
       <c r="T4">
-        <v>0.8724785150379983</v>
+        <v>0.8593216350529127</v>
       </c>
       <c r="U4">
-        <v>0.8870535819524501</v>
+        <v>0.876092204031816</v>
       </c>
       <c r="V4">
-        <v>0.8870535819524501</v>
+        <v>0.876092204031816</v>
       </c>
       <c r="W4">
-        <v>0.8964616968361542</v>
+        <v>0.8879150939206042</v>
       </c>
       <c r="X4">
-        <v>0.8964616968361542</v>
+        <v>0.8879150939206042</v>
       </c>
       <c r="Y4">
-        <v>0.8995011345337645</v>
+        <v>0.8936395778714589</v>
       </c>
       <c r="Z4">
-        <v>0.9610502337719992</v>
+        <v>0.9553907149151949</v>
       </c>
       <c r="AA4">
-        <v>0.9991199551616264</v>
+        <v>0.9946588820882668</v>
       </c>
       <c r="AB4">
-        <v>0.9991199551616264</v>
+        <v>0.9949276768938705</v>
       </c>
       <c r="AC4">
-        <v>0.9991199551616264</v>
+        <v>0.9949276768938705</v>
       </c>
       <c r="AD4">
-        <v>0.9991199551616264</v>
+        <v>0.9949276768938705</v>
       </c>
       <c r="AE4">
-        <v>0.9991199551616264</v>
+        <v>0.9949276768938705</v>
       </c>
       <c r="AF4">
-        <v>0.9991199551616264</v>
+        <v>0.9949276768938705</v>
       </c>
       <c r="AG4">
-        <v>0.9991199551616264</v>
+        <v>0.9949276768938705</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.998584407392901</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.998584407392901</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.998584407392901</v>
       </c>
       <c r="AK4">
         <v>1</v>
@@ -2296,100 +2296,100 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2210727623811943</v>
+        <v>0.2189953413326538</v>
       </c>
       <c r="G5">
-        <v>0.3233415473720966</v>
+        <v>0.320794197329729</v>
       </c>
       <c r="H5">
-        <v>0.5025703163495923</v>
+        <v>0.4985117206377538</v>
       </c>
       <c r="I5">
-        <v>0.5025703163495923</v>
+        <v>0.4985117206377538</v>
       </c>
       <c r="J5">
-        <v>0.5065692318116756</v>
+        <v>0.503370359849591</v>
       </c>
       <c r="K5">
-        <v>0.5065692318116756</v>
+        <v>0.503370359849591</v>
       </c>
       <c r="L5">
-        <v>0.5065692318116756</v>
+        <v>0.503370359849591</v>
       </c>
       <c r="M5">
-        <v>0.5423842269238196</v>
+        <v>0.5396145872719507</v>
       </c>
       <c r="N5">
-        <v>0.5423842269238196</v>
+        <v>0.5396145872719507</v>
       </c>
       <c r="O5">
-        <v>0.6996652152878993</v>
+        <v>0.6956812971534303</v>
       </c>
       <c r="P5">
-        <v>0.6996652152878993</v>
+        <v>0.6956812971534303</v>
       </c>
       <c r="Q5">
-        <v>0.6996652152878993</v>
+        <v>0.6956812971534303</v>
       </c>
       <c r="R5">
-        <v>0.7433832075402371</v>
+        <v>0.739721589226093</v>
       </c>
       <c r="S5">
-        <v>0.823267408269257</v>
+        <v>0.8194387383744792</v>
       </c>
       <c r="T5">
-        <v>0.8918614512819246</v>
+        <v>0.8880184926956366</v>
       </c>
       <c r="U5">
-        <v>0.9015313476309226</v>
+        <v>0.8984713808791917</v>
       </c>
       <c r="V5">
-        <v>0.9015313476309226</v>
+        <v>0.8984713808791917</v>
       </c>
       <c r="W5">
-        <v>0.9089358917780126</v>
+        <v>0.9066895684917495</v>
       </c>
       <c r="X5">
-        <v>0.9089358917780126</v>
+        <v>0.9066895684917495</v>
       </c>
       <c r="Y5">
-        <v>0.9089358917780126</v>
+        <v>0.9066895684917495</v>
       </c>
       <c r="Z5">
-        <v>0.9691099794986203</v>
+        <v>0.9669632947775799</v>
       </c>
       <c r="AA5">
-        <v>0.9959451139051079</v>
+        <v>0.994349164621147</v>
       </c>
       <c r="AB5">
-        <v>0.9959451139051079</v>
+        <v>0.994349164621147</v>
       </c>
       <c r="AC5">
-        <v>0.9959451139051079</v>
+        <v>0.994349164621147</v>
       </c>
       <c r="AD5">
-        <v>0.9959451139051079</v>
+        <v>0.994349164621147</v>
       </c>
       <c r="AE5">
-        <v>0.9959451139051079</v>
+        <v>0.994349164621147</v>
       </c>
       <c r="AF5">
-        <v>0.9959451139051079</v>
+        <v>0.994349164621147</v>
       </c>
       <c r="AG5">
-        <v>0.9959451139051079</v>
+        <v>0.994349164621147</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>0.9992630171481548</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>0.9992630171481548</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9992630171481548</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2409,100 +2409,100 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08321948940234518</v>
+        <v>0.08457279723741198</v>
       </c>
       <c r="G6">
-        <v>0.09693665288764872</v>
+        <v>0.09546333452469626</v>
       </c>
       <c r="H6">
-        <v>0.4711756972765622</v>
+        <v>0.4885578714041062</v>
       </c>
       <c r="I6">
-        <v>0.4746201347018229</v>
+        <v>0.4885578714041062</v>
       </c>
       <c r="J6">
-        <v>0.508799353398987</v>
+        <v>0.5211410707906958</v>
       </c>
       <c r="K6">
-        <v>0.508799353398987</v>
+        <v>0.5211410707906958</v>
       </c>
       <c r="L6">
-        <v>0.508799353398987</v>
+        <v>0.5211410707906958</v>
       </c>
       <c r="M6">
-        <v>0.5222878762761245</v>
+        <v>0.5317892168125977</v>
       </c>
       <c r="N6">
-        <v>0.5398434627647563</v>
+        <v>0.5467490234055936</v>
       </c>
       <c r="O6">
-        <v>0.6283660409247371</v>
+        <v>0.6369438420534129</v>
       </c>
       <c r="P6">
-        <v>0.6766575644932589</v>
+        <v>0.6844880733523441</v>
       </c>
       <c r="Q6">
-        <v>0.6766575644932589</v>
+        <v>0.6844880733523441</v>
       </c>
       <c r="R6">
-        <v>0.7489803617449162</v>
+        <v>0.7575088413151986</v>
       </c>
       <c r="S6">
-        <v>0.7489803617449162</v>
+        <v>0.7575088413151986</v>
       </c>
       <c r="T6">
-        <v>0.9089769823270565</v>
+        <v>0.9234762172688262</v>
       </c>
       <c r="U6">
-        <v>0.9089769823270565</v>
+        <v>0.9234762172688262</v>
       </c>
       <c r="V6">
-        <v>0.9269966487022682</v>
+        <v>0.9389280139411386</v>
       </c>
       <c r="W6">
-        <v>0.9269966487022682</v>
+        <v>0.9389280139411386</v>
       </c>
       <c r="X6">
-        <v>0.9269966487022682</v>
+        <v>0.9389280139411386</v>
       </c>
       <c r="Y6">
-        <v>0.931174242879595</v>
+        <v>0.9397052634169965</v>
       </c>
       <c r="Z6">
-        <v>0.9453706921907182</v>
+        <v>0.9511039112220584</v>
       </c>
       <c r="AA6">
-        <v>0.9949373834748226</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9949373834748226</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9949373834748226</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9949373834748226</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2516,88 +2516,88 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09197485937058973</v>
+        <v>0.08858511805504128</v>
       </c>
       <c r="E7">
-        <v>0.09197485937058973</v>
+        <v>0.08858511805504128</v>
       </c>
       <c r="F7">
-        <v>0.230971494055503</v>
+        <v>0.2196565078714291</v>
       </c>
       <c r="G7">
-        <v>0.230971494055503</v>
+        <v>0.2196565078714291</v>
       </c>
       <c r="H7">
-        <v>0.230971494055503</v>
+        <v>0.2196565078714291</v>
       </c>
       <c r="I7">
-        <v>0.230971494055503</v>
+        <v>0.2196565078714291</v>
       </c>
       <c r="J7">
-        <v>0.230971494055503</v>
+        <v>0.2196565078714291</v>
       </c>
       <c r="K7">
-        <v>0.2726112202586267</v>
+        <v>0.2627615875272163</v>
       </c>
       <c r="L7">
-        <v>0.2766044505603588</v>
+        <v>0.2718513786270711</v>
       </c>
       <c r="M7">
-        <v>0.3565774361304601</v>
+        <v>0.3495922682682692</v>
       </c>
       <c r="N7">
-        <v>0.4114320428716405</v>
+        <v>0.404637582040708</v>
       </c>
       <c r="O7">
-        <v>0.4114320428716405</v>
+        <v>0.404637582040708</v>
       </c>
       <c r="P7">
-        <v>0.4456559594349635</v>
+        <v>0.4410421468481968</v>
       </c>
       <c r="Q7">
-        <v>0.4456559594349635</v>
+        <v>0.4410421468481968</v>
       </c>
       <c r="R7">
-        <v>0.6527482396969454</v>
+        <v>0.6336409903690043</v>
       </c>
       <c r="S7">
-        <v>0.6527482396969454</v>
+        <v>0.6336409903690043</v>
       </c>
       <c r="T7">
-        <v>0.7156469126236569</v>
+        <v>0.6959544768069832</v>
       </c>
       <c r="U7">
-        <v>0.7156469126236569</v>
+        <v>0.6963724267217055</v>
       </c>
       <c r="V7">
-        <v>0.7877839258913956</v>
+        <v>0.7670331658044208</v>
       </c>
       <c r="W7">
-        <v>0.8073548760006565</v>
+        <v>0.7901981217133587</v>
       </c>
       <c r="X7">
-        <v>0.8107375618797361</v>
+        <v>0.7987362586893572</v>
       </c>
       <c r="Y7">
-        <v>0.9751448308619693</v>
+        <v>0.9527672902284867</v>
       </c>
       <c r="Z7">
-        <v>0.9816395541661951</v>
+        <v>0.9641172918542651</v>
       </c>
       <c r="AA7">
-        <v>0.9979190708841177</v>
+        <v>0.9843082908546433</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.9916702325203061</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.9916702325203061</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9916702325203061</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9964176936073514</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -2629,106 +2629,106 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1283957996129114</v>
+        <v>0.1212657813052961</v>
       </c>
       <c r="E8">
-        <v>0.1283957996129114</v>
+        <v>0.1212657813052961</v>
       </c>
       <c r="F8">
-        <v>0.2411021897438779</v>
+        <v>0.2284039713369925</v>
       </c>
       <c r="G8">
-        <v>0.2411021897438779</v>
+        <v>0.2284039713369925</v>
       </c>
       <c r="H8">
-        <v>0.2411021897438779</v>
+        <v>0.2284039713369925</v>
       </c>
       <c r="I8">
-        <v>0.2411021897438779</v>
+        <v>0.2290178149524916</v>
       </c>
       <c r="J8">
-        <v>0.2411021897438779</v>
+        <v>0.2290178149524916</v>
       </c>
       <c r="K8">
-        <v>0.3050187235390239</v>
+        <v>0.2922229844709983</v>
       </c>
       <c r="L8">
-        <v>0.3050187235390239</v>
+        <v>0.2922229844709983</v>
       </c>
       <c r="M8">
-        <v>0.4110959876476371</v>
+        <v>0.3933919515658617</v>
       </c>
       <c r="N8">
-        <v>0.4550330943967712</v>
+        <v>0.4386065664040548</v>
       </c>
       <c r="O8">
-        <v>0.4550330943967712</v>
+        <v>0.4423573079084784</v>
       </c>
       <c r="P8">
-        <v>0.4864610966941054</v>
+        <v>0.4763080498075934</v>
       </c>
       <c r="Q8">
-        <v>0.4864610966941054</v>
+        <v>0.47903229849121</v>
       </c>
       <c r="R8">
-        <v>0.6813212235743981</v>
+        <v>0.6601461480739573</v>
       </c>
       <c r="S8">
-        <v>0.6813212235743981</v>
+        <v>0.6601461480739573</v>
       </c>
       <c r="T8">
-        <v>0.735568634162903</v>
+        <v>0.7146447170798889</v>
       </c>
       <c r="U8">
-        <v>0.735568634162903</v>
+        <v>0.7201544789045069</v>
       </c>
       <c r="V8">
-        <v>0.7957378359840499</v>
+        <v>0.7799853484179003</v>
       </c>
       <c r="W8">
-        <v>0.8177278759317568</v>
+        <v>0.805437639519068</v>
       </c>
       <c r="X8">
-        <v>0.8177278759317568</v>
+        <v>0.805437639519068</v>
       </c>
       <c r="Y8">
-        <v>0.983234410650726</v>
+        <v>0.9601199300973582</v>
       </c>
       <c r="Z8">
-        <v>0.9890779418565925</v>
+        <v>0.9710330330752996</v>
       </c>
       <c r="AA8">
-        <v>0.9975501936913138</v>
+        <v>0.9843131780161447</v>
       </c>
       <c r="AB8">
-        <v>0.9994105255919778</v>
+        <v>0.9916395933109108</v>
       </c>
       <c r="AC8">
-        <v>0.9994105255919778</v>
+        <v>0.9916395933109108</v>
       </c>
       <c r="AD8">
-        <v>0.9994105255919778</v>
+        <v>0.9916395933109108</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9978216599134143</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2742,106 +2742,106 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07516673184542731</v>
+        <v>0.0719265304267115</v>
       </c>
       <c r="E9">
-        <v>0.07516673184542731</v>
+        <v>0.07419149836180239</v>
       </c>
       <c r="F9">
-        <v>0.2590513837215651</v>
+        <v>0.23729338032936</v>
       </c>
       <c r="G9">
-        <v>0.2590513837215651</v>
+        <v>0.2392338863612437</v>
       </c>
       <c r="H9">
-        <v>0.2590513837215651</v>
+        <v>0.2392338863612437</v>
       </c>
       <c r="I9">
-        <v>0.2590513837215651</v>
+        <v>0.2392338863612437</v>
       </c>
       <c r="J9">
-        <v>0.2590513837215651</v>
+        <v>0.2392338863612437</v>
       </c>
       <c r="K9">
-        <v>0.2702314631293614</v>
+        <v>0.2574985593105957</v>
       </c>
       <c r="L9">
-        <v>0.2764497451945633</v>
+        <v>0.2716020634585423</v>
       </c>
       <c r="M9">
-        <v>0.3170722090523022</v>
+        <v>0.3145583397026039</v>
       </c>
       <c r="N9">
-        <v>0.4230483459955969</v>
+        <v>0.4123229135702577</v>
       </c>
       <c r="O9">
-        <v>0.4230483459955969</v>
+        <v>0.4123229135702577</v>
       </c>
       <c r="P9">
-        <v>0.446331521707212</v>
+        <v>0.4407377444689312</v>
       </c>
       <c r="Q9">
-        <v>0.446331521707212</v>
+        <v>0.4407377444689312</v>
       </c>
       <c r="R9">
-        <v>0.6564207877352858</v>
+        <v>0.6258159014297934</v>
       </c>
       <c r="S9">
-        <v>0.6564207877352858</v>
+        <v>0.6258159014297934</v>
       </c>
       <c r="T9">
-        <v>0.7274789074034259</v>
+        <v>0.6942967794792028</v>
       </c>
       <c r="U9">
-        <v>0.7274789074034259</v>
+        <v>0.6971089249696889</v>
       </c>
       <c r="V9">
-        <v>0.8044068793499565</v>
+        <v>0.7705125043072015</v>
       </c>
       <c r="W9">
-        <v>0.8148076642279224</v>
+        <v>0.7881236285803916</v>
       </c>
       <c r="X9">
-        <v>0.8232808141829171</v>
+        <v>0.8041181583520068</v>
       </c>
       <c r="Y9">
-        <v>0.9645616007520853</v>
+        <v>0.9314906739440438</v>
       </c>
       <c r="Z9">
-        <v>0.9845500216977823</v>
+        <v>0.9571423870058545</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.978987974055042</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.9850382284819056</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.9850382284819056</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.9850382284819056</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9896825738913653</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9957949197454733</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2855,106 +2855,106 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0777590573538135</v>
+        <v>0.07437514967015284</v>
       </c>
       <c r="E10">
-        <v>0.0777590573538135</v>
+        <v>0.07437514967015284</v>
       </c>
       <c r="F10">
-        <v>0.2270242963630931</v>
+        <v>0.2085827430329464</v>
       </c>
       <c r="G10">
-        <v>0.2270242963630931</v>
+        <v>0.2085827430329464</v>
       </c>
       <c r="H10">
-        <v>0.2270242963630931</v>
+        <v>0.2085827430329464</v>
       </c>
       <c r="I10">
-        <v>0.2270242963630931</v>
+        <v>0.2085827430329464</v>
       </c>
       <c r="J10">
-        <v>0.2270242963630931</v>
+        <v>0.2133769074627986</v>
       </c>
       <c r="K10">
-        <v>0.2529708585110941</v>
+        <v>0.2443982081340794</v>
       </c>
       <c r="L10">
-        <v>0.2663430291552652</v>
+        <v>0.2648979489317373</v>
       </c>
       <c r="M10">
-        <v>0.3434375997286762</v>
+        <v>0.3387170925762223</v>
       </c>
       <c r="N10">
-        <v>0.4079069096667681</v>
+        <v>0.401972111853008</v>
       </c>
       <c r="O10">
-        <v>0.4079069096667681</v>
+        <v>0.401972111853008</v>
       </c>
       <c r="P10">
-        <v>0.4252906992665004</v>
+        <v>0.4258285549625227</v>
       </c>
       <c r="Q10">
-        <v>0.4252906992665004</v>
+        <v>0.4258285549625227</v>
       </c>
       <c r="R10">
-        <v>0.6316347743051838</v>
+        <v>0.6077965819508435</v>
       </c>
       <c r="S10">
-        <v>0.6316347743051838</v>
+        <v>0.6077965819508435</v>
       </c>
       <c r="T10">
-        <v>0.7174947792235524</v>
+        <v>0.6889501594127176</v>
       </c>
       <c r="U10">
-        <v>0.7286894484262658</v>
+        <v>0.7076278866533603</v>
       </c>
       <c r="V10">
-        <v>0.8032266091322698</v>
+        <v>0.7793071302451772</v>
       </c>
       <c r="W10">
-        <v>0.8357126151413004</v>
+        <v>0.8158002782104649</v>
       </c>
       <c r="X10">
-        <v>0.8357126151413004</v>
+        <v>0.8199651313166287</v>
       </c>
       <c r="Y10">
-        <v>0.9792508809179993</v>
+        <v>0.9493807081637223</v>
       </c>
       <c r="Z10">
-        <v>0.9792508809179993</v>
+        <v>0.9562575747283611</v>
       </c>
       <c r="AA10">
-        <v>0.9999999999999999</v>
+        <v>0.9829299406307497</v>
       </c>
       <c r="AB10">
-        <v>0.9999999999999999</v>
+        <v>0.9856814998168479</v>
       </c>
       <c r="AC10">
-        <v>0.9999999999999999</v>
+        <v>0.9856814998168479</v>
       </c>
       <c r="AD10">
-        <v>0.9999999999999999</v>
+        <v>0.9856814998168479</v>
       </c>
       <c r="AE10">
-        <v>0.9999999999999999</v>
+        <v>0.9870258401598248</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999999</v>
+        <v>0.9907113640211479</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -2974,100 +2974,100 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1358400428342964</v>
+        <v>0.1241551170640771</v>
       </c>
       <c r="G11">
-        <v>0.1668605650423601</v>
+        <v>0.158796783755836</v>
       </c>
       <c r="H11">
-        <v>0.2641493154687297</v>
+        <v>0.250029987238083</v>
       </c>
       <c r="I11">
-        <v>0.2641493154687297</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="J11">
-        <v>0.2641493154687297</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="K11">
-        <v>0.2641493154687297</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="L11">
-        <v>0.2641493154687297</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="M11">
-        <v>0.3153135291782432</v>
+        <v>0.302747609309452</v>
       </c>
       <c r="N11">
-        <v>0.3153135291782432</v>
+        <v>0.3074276374314123</v>
       </c>
       <c r="O11">
-        <v>0.4413996635003308</v>
+        <v>0.4232531418400654</v>
       </c>
       <c r="P11">
-        <v>0.4664848214921485</v>
+        <v>0.4528261445364311</v>
       </c>
       <c r="Q11">
-        <v>0.4664848214921485</v>
+        <v>0.4528261445364311</v>
       </c>
       <c r="R11">
-        <v>0.4944805430797823</v>
+        <v>0.4848847013398278</v>
       </c>
       <c r="S11">
-        <v>0.5076946346107218</v>
+        <v>0.50432008737697</v>
       </c>
       <c r="T11">
-        <v>0.6326563274471703</v>
+        <v>0.6191853447198095</v>
       </c>
       <c r="U11">
-        <v>0.6373187415624814</v>
+        <v>0.631317795698953</v>
       </c>
       <c r="V11">
-        <v>0.699521388222875</v>
+        <v>0.6925882766897209</v>
       </c>
       <c r="W11">
-        <v>0.7449248658318052</v>
+        <v>0.739512655196902</v>
       </c>
       <c r="X11">
-        <v>0.7788879450282647</v>
+        <v>0.77666719761424</v>
       </c>
       <c r="Y11">
-        <v>0.8572083551650316</v>
+        <v>0.8517018764608604</v>
       </c>
       <c r="Z11">
-        <v>0.8572083551650316</v>
+        <v>0.8538676484843964</v>
       </c>
       <c r="AA11">
-        <v>0.9891646506788145</v>
+        <v>0.9747061350109896</v>
       </c>
       <c r="AB11">
-        <v>0.9891646506788145</v>
+        <v>0.9747061350109896</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9940955926262496</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3135,16 +3135,16 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5025901248055318</v>
+        <v>0.6048944289611964</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5471909437831093</v>
+        <v>0.5455353928818409</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5230966442577022</v>
+        <v>0.5124965843124127</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -3258,16 +3258,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5025703163495923</v>
+        <v>0.503370359849591</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.508799353398987</v>
+        <v>0.5211410707906958</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6527482396969454</v>
+        <v>0.6336409903690043</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6813212235743981</v>
+        <v>0.6601461480739573</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6564207877352858</v>
+        <v>0.6258159014297934</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6316347743051838</v>
+        <v>0.6077965819508435</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5076946346107218</v>
+        <v>0.50432008737697</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8619927109547392</v>
+        <v>0.8057220335713928</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8499222687495336</v>
+        <v>0.8469378069392005</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7271687953173178</v>
+        <v>0.7145504429329798</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7433832075402371</v>
+        <v>0.739721589226093</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7489803617449162</v>
+        <v>0.7575088413151986</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -3804,16 +3804,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7156469126236569</v>
+        <v>0.7670331658044208</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>59</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.735568634162903</v>
+        <v>0.7146447170798889</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -3886,16 +3886,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7274789074034259</v>
+        <v>0.7705125043072015</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>59</v>
@@ -3927,16 +3927,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.7076278866533603</v>
+      </c>
+      <c r="G10">
         <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7174947792235524</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
       </c>
       <c r="H10">
         <v>59</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7449248658318052</v>
+        <v>0.739512655196902</v>
       </c>
       <c r="G11">
         <v>19</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8619927109547392</v>
+        <v>0.8057220335713928</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8499222687495336</v>
+        <v>0.8469378069392005</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -4145,16 +4145,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8120936615196443</v>
+        <v>0.8593216350529127</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.823267408269257</v>
+        <v>0.8194387383744792</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9089769823270565</v>
+        <v>0.9234762172688262</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -4268,16 +4268,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8073548760006565</v>
+        <v>0.9527672902284867</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>59</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8177278759317568</v>
+        <v>0.805437639519068</v>
       </c>
       <c r="G8">
         <v>21</v>
@@ -4350,16 +4350,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8044068793499565</v>
+        <v>0.8041181583520068</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>59</v>
@@ -4391,16 +4391,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8158002782104649</v>
+      </c>
+      <c r="G10">
         <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8032266091322698</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
       </c>
       <c r="H10">
         <v>59</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8572083551650316</v>
+        <v>0.8517018764608604</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9953368835667227</v>
+        <v>0.9625282872979025</v>
       </c>
       <c r="G2">
         <v>22</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9996049478167688</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9610502337719992</v>
+        <v>0.9553907149151949</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -4650,16 +4650,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9015313476309226</v>
+        <v>0.9066895684917495</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9089769823270565</v>
+        <v>0.9234762172688262</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9751448308619693</v>
+        <v>0.9527672902284867</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.983234410650726</v>
+        <v>0.9601199300973582</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9645616007520853</v>
+        <v>0.9314906739440438</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9792508809179993</v>
+        <v>0.9493807081637223</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9891646506788145</v>
+        <v>0.9747061350109896</v>
       </c>
       <c r="G11">
         <v>23</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
@@ -1724,10 +1724,10 @@
         <v>0.03464166669175889</v>
       </c>
       <c r="H11">
-        <v>0.09123320348224703</v>
+        <v>0.09123320348224705</v>
       </c>
       <c r="I11">
-        <v>0.0008737079474742135</v>
+        <v>0.0008737079474742136</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.05184391412389475</v>
+        <v>0.05184391412389476</v>
       </c>
       <c r="N11">
         <v>0.004680028121960281</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.03205855680339671</v>
+        <v>0.03205855680339672</v>
       </c>
       <c r="S11">
         <v>0.0194353860371422</v>
@@ -1766,16 +1766,16 @@
         <v>0.01213245097914355</v>
       </c>
       <c r="V11">
-        <v>0.06127048099076789</v>
+        <v>0.0612704809907679</v>
       </c>
       <c r="W11">
-        <v>0.04692437850718115</v>
+        <v>0.04692437850718117</v>
       </c>
       <c r="X11">
-        <v>0.03715454241733798</v>
+        <v>0.037154542417338</v>
       </c>
       <c r="Y11">
-        <v>0.07503467884662045</v>
+        <v>0.07503467884662046</v>
       </c>
       <c r="Z11">
         <v>0.002165772023536056</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.0174039951142567</v>
+        <v>0.01740399511425671</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.001985462501003334</v>
+        <v>0.001985462501003335</v>
       </c>
       <c r="AI11">
-        <v>0.00590440737375035</v>
+        <v>0.005904407373750351</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2980,19 +2980,19 @@
         <v>0.158796783755836</v>
       </c>
       <c r="H11">
-        <v>0.250029987238083</v>
+        <v>0.2500299872380831</v>
       </c>
       <c r="I11">
-        <v>0.2509036951855572</v>
+        <v>0.2509036951855573</v>
       </c>
       <c r="J11">
-        <v>0.2509036951855572</v>
+        <v>0.2509036951855573</v>
       </c>
       <c r="K11">
-        <v>0.2509036951855572</v>
+        <v>0.2509036951855573</v>
       </c>
       <c r="L11">
-        <v>0.2509036951855572</v>
+        <v>0.2509036951855573</v>
       </c>
       <c r="M11">
         <v>0.302747609309452</v>
@@ -3001,73 +3001,73 @@
         <v>0.3074276374314123</v>
       </c>
       <c r="O11">
-        <v>0.4232531418400654</v>
+        <v>0.4232531418400655</v>
       </c>
       <c r="P11">
-        <v>0.4528261445364311</v>
+        <v>0.4528261445364312</v>
       </c>
       <c r="Q11">
-        <v>0.4528261445364311</v>
+        <v>0.4528261445364312</v>
       </c>
       <c r="R11">
-        <v>0.4848847013398278</v>
+        <v>0.4848847013398279</v>
       </c>
       <c r="S11">
-        <v>0.50432008737697</v>
+        <v>0.5043200873769701</v>
       </c>
       <c r="T11">
-        <v>0.6191853447198095</v>
+        <v>0.6191853447198096</v>
       </c>
       <c r="U11">
-        <v>0.631317795698953</v>
+        <v>0.6313177956989531</v>
       </c>
       <c r="V11">
-        <v>0.6925882766897209</v>
+        <v>0.692588276689721</v>
       </c>
       <c r="W11">
-        <v>0.739512655196902</v>
+        <v>0.7395126551969021</v>
       </c>
       <c r="X11">
-        <v>0.77666719761424</v>
+        <v>0.7766671976142401</v>
       </c>
       <c r="Y11">
-        <v>0.8517018764608604</v>
+        <v>0.8517018764608606</v>
       </c>
       <c r="Z11">
-        <v>0.8538676484843964</v>
+        <v>0.8538676484843967</v>
       </c>
       <c r="AA11">
-        <v>0.9747061350109896</v>
+        <v>0.9747061350109898</v>
       </c>
       <c r="AB11">
-        <v>0.9747061350109896</v>
+        <v>0.9747061350109898</v>
       </c>
       <c r="AC11">
-        <v>0.9921101301252463</v>
+        <v>0.9921101301252465</v>
       </c>
       <c r="AD11">
-        <v>0.9921101301252463</v>
+        <v>0.9921101301252465</v>
       </c>
       <c r="AE11">
-        <v>0.9921101301252463</v>
+        <v>0.9921101301252465</v>
       </c>
       <c r="AF11">
-        <v>0.9921101301252463</v>
+        <v>0.9921101301252465</v>
       </c>
       <c r="AG11">
-        <v>0.9921101301252463</v>
+        <v>0.9921101301252465</v>
       </c>
       <c r="AH11">
-        <v>0.9940955926262496</v>
+        <v>0.9940955926262498</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.50432008737697</v>
+        <v>0.5043200873769701</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.739512655196902</v>
+        <v>0.7395126551969021</v>
       </c>
       <c r="G11">
         <v>19</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8517018764608604</v>
+        <v>0.8517018764608606</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9747061350109896</v>
+        <v>0.9747061350109898</v>
       </c>
       <c r="G11">
         <v>23</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
@@ -1724,10 +1724,10 @@
         <v>0.03464166669175889</v>
       </c>
       <c r="H11">
-        <v>0.09123320348224705</v>
+        <v>0.09123320348224703</v>
       </c>
       <c r="I11">
-        <v>0.0008737079474742136</v>
+        <v>0.0008737079474742135</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.05184391412389476</v>
+        <v>0.05184391412389475</v>
       </c>
       <c r="N11">
         <v>0.004680028121960281</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.03205855680339672</v>
+        <v>0.03205855680339671</v>
       </c>
       <c r="S11">
         <v>0.0194353860371422</v>
@@ -1766,16 +1766,16 @@
         <v>0.01213245097914355</v>
       </c>
       <c r="V11">
-        <v>0.0612704809907679</v>
+        <v>0.06127048099076789</v>
       </c>
       <c r="W11">
-        <v>0.04692437850718117</v>
+        <v>0.04692437850718115</v>
       </c>
       <c r="X11">
-        <v>0.037154542417338</v>
+        <v>0.03715454241733798</v>
       </c>
       <c r="Y11">
-        <v>0.07503467884662046</v>
+        <v>0.07503467884662045</v>
       </c>
       <c r="Z11">
         <v>0.002165772023536056</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01740399511425671</v>
+        <v>0.0174039951142567</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.001985462501003335</v>
+        <v>0.001985462501003334</v>
       </c>
       <c r="AI11">
-        <v>0.005904407373750351</v>
+        <v>0.00590440737375035</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2980,19 +2980,19 @@
         <v>0.158796783755836</v>
       </c>
       <c r="H11">
-        <v>0.2500299872380831</v>
+        <v>0.250029987238083</v>
       </c>
       <c r="I11">
-        <v>0.2509036951855573</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="J11">
-        <v>0.2509036951855573</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="K11">
-        <v>0.2509036951855573</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="L11">
-        <v>0.2509036951855573</v>
+        <v>0.2509036951855572</v>
       </c>
       <c r="M11">
         <v>0.302747609309452</v>
@@ -3001,73 +3001,73 @@
         <v>0.3074276374314123</v>
       </c>
       <c r="O11">
-        <v>0.4232531418400655</v>
+        <v>0.4232531418400654</v>
       </c>
       <c r="P11">
-        <v>0.4528261445364312</v>
+        <v>0.4528261445364311</v>
       </c>
       <c r="Q11">
-        <v>0.4528261445364312</v>
+        <v>0.4528261445364311</v>
       </c>
       <c r="R11">
-        <v>0.4848847013398279</v>
+        <v>0.4848847013398278</v>
       </c>
       <c r="S11">
-        <v>0.5043200873769701</v>
+        <v>0.50432008737697</v>
       </c>
       <c r="T11">
-        <v>0.6191853447198096</v>
+        <v>0.6191853447198095</v>
       </c>
       <c r="U11">
-        <v>0.6313177956989531</v>
+        <v>0.631317795698953</v>
       </c>
       <c r="V11">
-        <v>0.692588276689721</v>
+        <v>0.6925882766897209</v>
       </c>
       <c r="W11">
-        <v>0.7395126551969021</v>
+        <v>0.739512655196902</v>
       </c>
       <c r="X11">
-        <v>0.7766671976142401</v>
+        <v>0.77666719761424</v>
       </c>
       <c r="Y11">
-        <v>0.8517018764608606</v>
+        <v>0.8517018764608604</v>
       </c>
       <c r="Z11">
-        <v>0.8538676484843967</v>
+        <v>0.8538676484843964</v>
       </c>
       <c r="AA11">
-        <v>0.9747061350109898</v>
+        <v>0.9747061350109896</v>
       </c>
       <c r="AB11">
-        <v>0.9747061350109898</v>
+        <v>0.9747061350109896</v>
       </c>
       <c r="AC11">
-        <v>0.9921101301252465</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AD11">
-        <v>0.9921101301252465</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AE11">
-        <v>0.9921101301252465</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AF11">
-        <v>0.9921101301252465</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AG11">
-        <v>0.9921101301252465</v>
+        <v>0.9921101301252463</v>
       </c>
       <c r="AH11">
-        <v>0.9940955926262498</v>
+        <v>0.9940955926262496</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5043200873769701</v>
+        <v>0.50432008737697</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7395126551969021</v>
+        <v>0.739512655196902</v>
       </c>
       <c r="G11">
         <v>19</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8517018764608606</v>
+        <v>0.8517018764608604</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9747061350109898</v>
+        <v>0.9747061350109896</v>
       </c>
       <c r="G11">
         <v>23</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/59_11R22.xlsx
@@ -162,40 +162,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -701,100 +701,100 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01969137151149705</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.08097428377350389</v>
+        <v>0.08657431862689956</v>
       </c>
       <c r="H2">
-        <v>0.2352815998102858</v>
+        <v>0.3486486383836784</v>
       </c>
       <c r="I2">
-        <v>0.05529686945568859</v>
+        <v>0.04296400212803472</v>
       </c>
       <c r="J2">
-        <v>0.009159946831974417</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.005137416541257301</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.006002389433270493</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.004295358932320784</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05852294670709157</v>
+        <v>0.04844314610422003</v>
       </c>
       <c r="O2">
-        <v>0.01771940421152875</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1128128417527778</v>
+        <v>0.1406486725769483</v>
       </c>
       <c r="Q2">
-        <v>0.0001254461106866714</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.05317165491917919</v>
+        <v>0.03935455464169418</v>
       </c>
       <c r="S2">
-        <v>0.005360663265584429</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.1421698403147462</v>
+        <v>0.1905083657258764</v>
       </c>
       <c r="U2">
-        <v>0.01167699754245957</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02643278107849018</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001170723926688483</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01088166328161918</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01651017383721747</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0006253994896416301</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.09056216610441296</v>
+        <v>0.1028583018126487</v>
       </c>
       <c r="AB2">
-        <v>0.004242228432271695</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.005426671332171754</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.814629468679103E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.008655074134334766</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.002918272162404801</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001123929746305987</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0008093123648989942</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0137091067003912</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>9.70637337785972E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0004519078008526727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.105012504858888</v>
+        <v>0.1076348262369992</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3063517013342881</v>
+        <v>0.3811884932684989</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -826,52 +826,52 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004002782785600381</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01463254233871631</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04052124629124751</v>
+        <v>0.02001244280899065</v>
       </c>
       <c r="M3">
-        <v>0.07501461527310056</v>
+        <v>0.06687757259214921</v>
       </c>
       <c r="N3">
-        <v>0.06358620360521597</v>
+        <v>0.05135012451038744</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.07298977254864779</v>
+        <v>0.06412647811013769</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1648264379034959</v>
+        <v>0.1889022645220639</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01429703902104176</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001738593875931144</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.02258593005041157</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1140455779301839</v>
+        <v>0.1199077979507728</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.000395052183231223</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1944484092586509</v>
+        <v>0.2432563609405748</v>
       </c>
       <c r="G4">
-        <v>0.1125030801823566</v>
+        <v>0.124137223849318</v>
       </c>
       <c r="H4">
-        <v>0.1523649263666129</v>
+        <v>0.1820820606552348</v>
       </c>
       <c r="I4">
-        <v>0.000342765254992858</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -948,52 +948,52 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.05283740324979946</v>
+        <v>0.03740471535509098</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1558652574102849</v>
+        <v>0.1871702873809795</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001013970548002591</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0451746306622796</v>
+        <v>0.02626579055436112</v>
       </c>
       <c r="S4">
-        <v>0.08413489302509441</v>
+        <v>0.08290004763552561</v>
       </c>
       <c r="T4">
-        <v>0.06063629909483857</v>
+        <v>0.04874151458205745</v>
       </c>
       <c r="U4">
-        <v>0.0167705689789033</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01182288988878821</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.005724483950854661</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.06175113704373601</v>
+        <v>0.05036208937217893</v>
       </c>
       <c r="AA4">
-        <v>0.03926816717307191</v>
+        <v>0.01767990967467876</v>
       </c>
       <c r="AB4">
-        <v>0.0002687948056036937</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003656730499030445</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.00141559260709922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2189953413326538</v>
+        <v>0.2713873775573737</v>
       </c>
       <c r="G5">
-        <v>0.1017988559970753</v>
+        <v>0.1066310925349601</v>
       </c>
       <c r="H5">
-        <v>0.1777175233080248</v>
+        <v>0.2133585046598986</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.004858639211837184</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03624422742235972</v>
+        <v>0.01447357570270862</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1560667098814796</v>
+        <v>0.1829215203283549</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1076,22 +1076,22 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.04404029207266266</v>
+        <v>0.02543338090420933</v>
       </c>
       <c r="S5">
-        <v>0.07971714914838619</v>
+        <v>0.07558835284078989</v>
       </c>
       <c r="T5">
-        <v>0.06857975432115737</v>
+        <v>0.05993126388195395</v>
       </c>
       <c r="U5">
-        <v>0.01045288818355502</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.008218187612557893</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.06027372628583037</v>
+        <v>0.04825454577497287</v>
       </c>
       <c r="AA5">
-        <v>0.02738586984356701</v>
+        <v>0.002020385814778053</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004913852527007821</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0007369828518452574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08457279723741198</v>
+        <v>0.08193256542504503</v>
       </c>
       <c r="G6">
-        <v>0.01089053728728427</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.39309453687941</v>
+        <v>0.4918879400228997</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03258319938658962</v>
+        <v>0.01285018864713196</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1174,34 +1174,34 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01064814602190194</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.01495980659299586</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.09019481864781932</v>
+        <v>0.08940295599128231</v>
       </c>
       <c r="P6">
-        <v>0.04754423129893117</v>
+        <v>0.0327300047311183</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.07302076796285453</v>
+        <v>0.06658254019145234</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1659673759536276</v>
+        <v>0.1900874884672929</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01545179667231237</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0007772494758579201</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01139864780506191</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.04889608877794165</v>
+        <v>0.03452631652377749</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08858511805504128</v>
+        <v>0.09592203900885553</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1310713898163878</v>
+        <v>0.1633235173646881</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1281,58 +1281,58 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.04310507965578723</v>
+        <v>0.02377116069670773</v>
       </c>
       <c r="L7">
-        <v>0.009089791099854829</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.07774088964119807</v>
+        <v>0.07871843425795959</v>
       </c>
       <c r="N7">
-        <v>0.05504531377243882</v>
+        <v>0.04271350131670189</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0364045648074887</v>
+        <v>0.01314126572598896</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.1925988435208076</v>
+        <v>0.2609324900333811</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.06231348643797884</v>
+        <v>0.05424394544120943</v>
       </c>
       <c r="U7">
-        <v>0.0004179499147222842</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.07066073908271531</v>
+        <v>0.06748627396617861</v>
       </c>
       <c r="W7">
-        <v>0.02316495590893791</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.008538136975998511</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.1540310315391295</v>
+        <v>0.1997473721883291</v>
       </c>
       <c r="Z7">
-        <v>0.01135000162577839</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.02019099900037823</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.007361941665662747</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.004747461087045328</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.003582306392648577</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1212657813052961</v>
+        <v>0.1456566186305793</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1071381900316964</v>
+        <v>0.1234596821265704</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1388,64 +1388,64 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0006138436154990511</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.06320516951850666</v>
+        <v>0.05443316176121163</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1011689670948634</v>
+        <v>0.1140809805530929</v>
       </c>
       <c r="N8">
-        <v>0.04521461483819315</v>
+        <v>0.02616682872699801</v>
       </c>
       <c r="O8">
-        <v>0.003750741504423557</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.033950741899115</v>
+        <v>0.008469298583613836</v>
       </c>
       <c r="Q8">
-        <v>0.002724248683616666</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.1811138495827473</v>
+        <v>0.2396884847650876</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.05449856900593149</v>
+        <v>0.04075355743230185</v>
       </c>
       <c r="U8">
-        <v>0.005509761824618098</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.05983086951339341</v>
+        <v>0.04913154158347192</v>
       </c>
       <c r="W8">
-        <v>0.02545229110116766</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.1546822905782902</v>
+        <v>0.1981598458370725</v>
       </c>
       <c r="Z8">
-        <v>0.01091310297794145</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0132801449408451</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.007326415294766093</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.006182066602503533</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.002178340086585313</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0719265304267115</v>
+        <v>0.07125610148733889</v>
       </c>
       <c r="E9">
-        <v>0.002264967935090885</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1631018819675576</v>
+        <v>0.2251832225703604</v>
       </c>
       <c r="G9">
-        <v>0.001940506031883633</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1507,58 +1507,58 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.01826467294935205</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0141035041479466</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.04295627624406161</v>
+        <v>0.02234696378710298</v>
       </c>
       <c r="N9">
-        <v>0.09776457386765382</v>
+        <v>0.1148772729341037</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.02841483089867342</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.1850781569608622</v>
+        <v>0.2622847492952968</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.0684808780494094</v>
+        <v>0.06543896624488935</v>
       </c>
       <c r="U9">
-        <v>0.002812145490486188</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.07340357933751264</v>
+        <v>0.07374973471930484</v>
       </c>
       <c r="W9">
-        <v>0.01761112427319015</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01599452977161523</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.127372515592037</v>
+        <v>0.1648629889616031</v>
       </c>
       <c r="Z9">
-        <v>0.02565171306181074</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02184558704918751</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.006050254426863527</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.004644345409459696</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.006112345854107993</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.004205080254526505</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07437514967015284</v>
+        <v>0.07693010614487535</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1342075933627936</v>
+        <v>0.180220028341472</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1617,61 +1617,61 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.004794164429852187</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.03102130067128073</v>
+        <v>0.002087505481261125</v>
       </c>
       <c r="L10">
-        <v>0.020499740797658</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.07381914364448497</v>
+        <v>0.07597026202707383</v>
       </c>
       <c r="N10">
-        <v>0.0632550192767857</v>
+        <v>0.05773320673278974</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.02385644310951472</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.1819680269883209</v>
+        <v>0.2626698025575834</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.0811535774618741</v>
+        <v>0.08863183911802239</v>
       </c>
       <c r="U10">
-        <v>0.01867772724064265</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.07167924359181685</v>
+        <v>0.07227611055493917</v>
       </c>
       <c r="W10">
-        <v>0.03649314796528768</v>
+        <v>0.01153366288999072</v>
       </c>
       <c r="X10">
-        <v>0.004164853106163836</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.1294155768470936</v>
+        <v>0.1719474761519925</v>
       </c>
       <c r="Z10">
-        <v>0.006876866564638798</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.02667236590238851</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.002751559186098244</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.001344340342976787</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.00368552386132313</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.009288635978852322</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1241551170640771</v>
+        <v>0.1712161527510687</v>
       </c>
       <c r="G11">
-        <v>0.03464166669175889</v>
+        <v>0.009520237537367582</v>
       </c>
       <c r="H11">
-        <v>0.09123320348224703</v>
+        <v>0.1117464426118803</v>
       </c>
       <c r="I11">
-        <v>0.0008737079474742135</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1739,55 +1739,55 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.05184391412389475</v>
+        <v>0.04059415023654705</v>
       </c>
       <c r="N11">
-        <v>0.004680028121960281</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.1158255044086531</v>
+        <v>0.1561696503975976</v>
       </c>
       <c r="P11">
-        <v>0.0295730026963657</v>
+        <v>0.0003642698002632261</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.03205855680339671</v>
+        <v>0.004854141930964177</v>
       </c>
       <c r="S11">
-        <v>0.0194353860371422</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.1148652573428395</v>
+        <v>0.1544350727727581</v>
       </c>
       <c r="U11">
-        <v>0.01213245097914355</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.06127048099076789</v>
+        <v>0.05762217619825849</v>
       </c>
       <c r="W11">
-        <v>0.04692437850718115</v>
+        <v>0.03170756603425937</v>
       </c>
       <c r="X11">
-        <v>0.03715454241733798</v>
+        <v>0.01405946307918023</v>
       </c>
       <c r="Y11">
-        <v>0.07503467884662045</v>
+        <v>0.08248564152360814</v>
       </c>
       <c r="Z11">
-        <v>0.002165772023536056</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.1208384865265931</v>
+        <v>0.1652250351262471</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.0174039951142567</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.001985462501003334</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.00590440737375035</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1957,100 +1957,100 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01969137151149705</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1006656552850009</v>
+        <v>0.08657431862689956</v>
       </c>
       <c r="H2">
-        <v>0.3359472550952867</v>
+        <v>0.435222957010578</v>
       </c>
       <c r="I2">
-        <v>0.3912441245509753</v>
+        <v>0.4781869591386128</v>
       </c>
       <c r="J2">
-        <v>0.4004040713829497</v>
+        <v>0.4781869591386128</v>
       </c>
       <c r="K2">
-        <v>0.405541487924207</v>
+        <v>0.4781869591386128</v>
       </c>
       <c r="L2">
-        <v>0.4115438773574775</v>
+        <v>0.4781869591386128</v>
       </c>
       <c r="M2">
-        <v>0.4158392362897983</v>
+        <v>0.4781869591386128</v>
       </c>
       <c r="N2">
-        <v>0.4743621829968899</v>
+        <v>0.5266301052428328</v>
       </c>
       <c r="O2">
-        <v>0.4920815872084186</v>
+        <v>0.5266301052428328</v>
       </c>
       <c r="P2">
-        <v>0.6048944289611964</v>
+        <v>0.6672787778197811</v>
       </c>
       <c r="Q2">
-        <v>0.605019875071883</v>
+        <v>0.6672787778197811</v>
       </c>
       <c r="R2">
-        <v>0.6581915299910622</v>
+        <v>0.7066333324614752</v>
       </c>
       <c r="S2">
-        <v>0.6635521932566466</v>
+        <v>0.7066333324614752</v>
       </c>
       <c r="T2">
-        <v>0.8057220335713928</v>
+        <v>0.8971416981873516</v>
       </c>
       <c r="U2">
-        <v>0.8173990311138524</v>
+        <v>0.8971416981873516</v>
       </c>
       <c r="V2">
-        <v>0.8438318121923425</v>
+        <v>0.8971416981873516</v>
       </c>
       <c r="W2">
-        <v>0.8439488845850114</v>
+        <v>0.8971416981873516</v>
       </c>
       <c r="X2">
-        <v>0.8548305478666306</v>
+        <v>0.8971416981873516</v>
       </c>
       <c r="Y2">
-        <v>0.871340721703848</v>
+        <v>0.8971416981873516</v>
       </c>
       <c r="Z2">
-        <v>0.8719661211934896</v>
+        <v>0.8971416981873516</v>
       </c>
       <c r="AA2">
-        <v>0.9625282872979025</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9667705157301743</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.972197187062346</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9722353333570328</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9808904074913676</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9838086796537724</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9849326094000784</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9857419217649774</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9994510284653686</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9995480921991472</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2064,106 +2064,106 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.105012504858888</v>
+        <v>0.1076348262369992</v>
       </c>
       <c r="E3">
-        <v>0.105012504858888</v>
+        <v>0.1076348262369992</v>
       </c>
       <c r="F3">
-        <v>0.4113642061931761</v>
+        <v>0.4888233195054981</v>
       </c>
       <c r="G3">
-        <v>0.4113642061931761</v>
+        <v>0.4888233195054981</v>
       </c>
       <c r="H3">
-        <v>0.4113642061931761</v>
+        <v>0.4888233195054981</v>
       </c>
       <c r="I3">
-        <v>0.4113642061931761</v>
+        <v>0.4888233195054981</v>
       </c>
       <c r="J3">
-        <v>0.4153669889787765</v>
+        <v>0.4888233195054981</v>
       </c>
       <c r="K3">
-        <v>0.4299995313174928</v>
+        <v>0.4888233195054981</v>
       </c>
       <c r="L3">
-        <v>0.4705207776087403</v>
+        <v>0.5088357623144888</v>
       </c>
       <c r="M3">
-        <v>0.5455353928818409</v>
+        <v>0.575713334906638</v>
       </c>
       <c r="N3">
-        <v>0.6091215964870569</v>
+        <v>0.6270634594170255</v>
       </c>
       <c r="O3">
-        <v>0.6091215964870569</v>
+        <v>0.6270634594170255</v>
       </c>
       <c r="P3">
-        <v>0.6821113690357047</v>
+        <v>0.6911899375271632</v>
       </c>
       <c r="Q3">
-        <v>0.6821113690357047</v>
+        <v>0.6911899375271632</v>
       </c>
       <c r="R3">
-        <v>0.8469378069392005</v>
+        <v>0.880092202049227</v>
       </c>
       <c r="S3">
-        <v>0.8469378069392005</v>
+        <v>0.880092202049227</v>
       </c>
       <c r="T3">
-        <v>0.8612348459602422</v>
+        <v>0.880092202049227</v>
       </c>
       <c r="U3">
-        <v>0.8612348459602422</v>
+        <v>0.880092202049227</v>
       </c>
       <c r="V3">
-        <v>0.8629734398361734</v>
+        <v>0.880092202049227</v>
       </c>
       <c r="W3">
-        <v>0.8855593698865849</v>
+        <v>0.880092202049227</v>
       </c>
       <c r="X3">
-        <v>0.8855593698865849</v>
+        <v>0.880092202049227</v>
       </c>
       <c r="Y3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.9996049478167688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2183,100 +2183,100 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1944484092586509</v>
+        <v>0.2432563609405748</v>
       </c>
       <c r="G4">
-        <v>0.3069514894410075</v>
+        <v>0.3673935847898928</v>
       </c>
       <c r="H4">
-        <v>0.4593164158076204</v>
+        <v>0.5494756454451275</v>
       </c>
       <c r="I4">
-        <v>0.4596591810626133</v>
+        <v>0.5494756454451275</v>
       </c>
       <c r="J4">
-        <v>0.4596591810626133</v>
+        <v>0.5494756454451275</v>
       </c>
       <c r="K4">
-        <v>0.4596591810626133</v>
+        <v>0.5494756454451275</v>
       </c>
       <c r="L4">
-        <v>0.4596591810626133</v>
+        <v>0.5494756454451275</v>
       </c>
       <c r="M4">
-        <v>0.5124965843124127</v>
+        <v>0.5868803608002184</v>
       </c>
       <c r="N4">
-        <v>0.5124965843124127</v>
+        <v>0.5868803608002184</v>
       </c>
       <c r="O4">
-        <v>0.6683618417226976</v>
+        <v>0.774050648181198</v>
       </c>
       <c r="P4">
-        <v>0.6683618417226976</v>
+        <v>0.774050648181198</v>
       </c>
       <c r="Q4">
-        <v>0.6693758122707002</v>
+        <v>0.774050648181198</v>
       </c>
       <c r="R4">
-        <v>0.7145504429329798</v>
+        <v>0.800316438735559</v>
       </c>
       <c r="S4">
-        <v>0.7986853359580741</v>
+        <v>0.8832164863710846</v>
       </c>
       <c r="T4">
-        <v>0.8593216350529127</v>
+        <v>0.9319580009531421</v>
       </c>
       <c r="U4">
-        <v>0.876092204031816</v>
+        <v>0.9319580009531421</v>
       </c>
       <c r="V4">
-        <v>0.876092204031816</v>
+        <v>0.9319580009531421</v>
       </c>
       <c r="W4">
-        <v>0.8879150939206042</v>
+        <v>0.9319580009531421</v>
       </c>
       <c r="X4">
-        <v>0.8879150939206042</v>
+        <v>0.9319580009531421</v>
       </c>
       <c r="Y4">
-        <v>0.8936395778714589</v>
+        <v>0.9319580009531421</v>
       </c>
       <c r="Z4">
-        <v>0.9553907149151949</v>
+        <v>0.982320090325321</v>
       </c>
       <c r="AA4">
-        <v>0.9946588820882668</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.9949276768938705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.9949276768938705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.9949276768938705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.9949276768938705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.9949276768938705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.9949276768938705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>0.998584407392901</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.998584407392901</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>0.998584407392901</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2296,97 +2296,97 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2189953413326538</v>
+        <v>0.2713873775573737</v>
       </c>
       <c r="G5">
-        <v>0.320794197329729</v>
+        <v>0.3780184700923338</v>
       </c>
       <c r="H5">
-        <v>0.4985117206377538</v>
+        <v>0.5913769747522324</v>
       </c>
       <c r="I5">
-        <v>0.4985117206377538</v>
+        <v>0.5913769747522324</v>
       </c>
       <c r="J5">
-        <v>0.503370359849591</v>
+        <v>0.5913769747522324</v>
       </c>
       <c r="K5">
-        <v>0.503370359849591</v>
+        <v>0.5913769747522324</v>
       </c>
       <c r="L5">
-        <v>0.503370359849591</v>
+        <v>0.5913769747522324</v>
       </c>
       <c r="M5">
-        <v>0.5396145872719507</v>
+        <v>0.605850550454941</v>
       </c>
       <c r="N5">
-        <v>0.5396145872719507</v>
+        <v>0.605850550454941</v>
       </c>
       <c r="O5">
-        <v>0.6956812971534303</v>
+        <v>0.7887720707832959</v>
       </c>
       <c r="P5">
-        <v>0.6956812971534303</v>
+        <v>0.7887720707832959</v>
       </c>
       <c r="Q5">
-        <v>0.6956812971534303</v>
+        <v>0.7887720707832959</v>
       </c>
       <c r="R5">
-        <v>0.739721589226093</v>
+        <v>0.8142054516875052</v>
       </c>
       <c r="S5">
-        <v>0.8194387383744792</v>
+        <v>0.8897938045282952</v>
       </c>
       <c r="T5">
-        <v>0.8880184926956366</v>
+        <v>0.9497250684102491</v>
       </c>
       <c r="U5">
-        <v>0.8984713808791917</v>
+        <v>0.9497250684102491</v>
       </c>
       <c r="V5">
-        <v>0.8984713808791917</v>
+        <v>0.9497250684102491</v>
       </c>
       <c r="W5">
-        <v>0.9066895684917495</v>
+        <v>0.9497250684102491</v>
       </c>
       <c r="X5">
-        <v>0.9066895684917495</v>
+        <v>0.9497250684102491</v>
       </c>
       <c r="Y5">
-        <v>0.9066895684917495</v>
+        <v>0.9497250684102491</v>
       </c>
       <c r="Z5">
-        <v>0.9669632947775799</v>
+        <v>0.997979614185222</v>
       </c>
       <c r="AA5">
-        <v>0.994349164621147</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.994349164621147</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.994349164621147</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.994349164621147</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.994349164621147</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.994349164621147</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.994349164621147</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9992630171481548</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9992630171481548</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9992630171481548</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -2409,67 +2409,67 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08457279723741198</v>
+        <v>0.08193256542504503</v>
       </c>
       <c r="G6">
-        <v>0.09546333452469626</v>
+        <v>0.08193256542504503</v>
       </c>
       <c r="H6">
-        <v>0.4885578714041062</v>
+        <v>0.5738205054479447</v>
       </c>
       <c r="I6">
-        <v>0.4885578714041062</v>
+        <v>0.5738205054479447</v>
       </c>
       <c r="J6">
-        <v>0.5211410707906958</v>
+        <v>0.5866706940950767</v>
       </c>
       <c r="K6">
-        <v>0.5211410707906958</v>
+        <v>0.5866706940950767</v>
       </c>
       <c r="L6">
-        <v>0.5211410707906958</v>
+        <v>0.5866706940950767</v>
       </c>
       <c r="M6">
-        <v>0.5317892168125977</v>
+        <v>0.5866706940950767</v>
       </c>
       <c r="N6">
-        <v>0.5467490234055936</v>
+        <v>0.5866706940950767</v>
       </c>
       <c r="O6">
-        <v>0.6369438420534129</v>
+        <v>0.676073650086359</v>
       </c>
       <c r="P6">
-        <v>0.6844880733523441</v>
+        <v>0.7088036548174773</v>
       </c>
       <c r="Q6">
-        <v>0.6844880733523441</v>
+        <v>0.7088036548174773</v>
       </c>
       <c r="R6">
-        <v>0.7575088413151986</v>
+        <v>0.7753861950089297</v>
       </c>
       <c r="S6">
-        <v>0.7575088413151986</v>
+        <v>0.7753861950089297</v>
       </c>
       <c r="T6">
-        <v>0.9234762172688262</v>
+        <v>0.9654736834762226</v>
       </c>
       <c r="U6">
-        <v>0.9234762172688262</v>
+        <v>0.9654736834762226</v>
       </c>
       <c r="V6">
-        <v>0.9389280139411386</v>
+        <v>0.9654736834762226</v>
       </c>
       <c r="W6">
-        <v>0.9389280139411386</v>
+        <v>0.9654736834762226</v>
       </c>
       <c r="X6">
-        <v>0.9389280139411386</v>
+        <v>0.9654736834762226</v>
       </c>
       <c r="Y6">
-        <v>0.9397052634169965</v>
+        <v>0.9654736834762226</v>
       </c>
       <c r="Z6">
-        <v>0.9511039112220584</v>
+        <v>0.9654736834762226</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -2516,88 +2516,88 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08858511805504128</v>
+        <v>0.09592203900885553</v>
       </c>
       <c r="E7">
-        <v>0.08858511805504128</v>
+        <v>0.09592203900885553</v>
       </c>
       <c r="F7">
-        <v>0.2196565078714291</v>
+        <v>0.2592455563735436</v>
       </c>
       <c r="G7">
-        <v>0.2196565078714291</v>
+        <v>0.2592455563735436</v>
       </c>
       <c r="H7">
-        <v>0.2196565078714291</v>
+        <v>0.2592455563735436</v>
       </c>
       <c r="I7">
-        <v>0.2196565078714291</v>
+        <v>0.2592455563735436</v>
       </c>
       <c r="J7">
-        <v>0.2196565078714291</v>
+        <v>0.2592455563735436</v>
       </c>
       <c r="K7">
-        <v>0.2627615875272163</v>
+        <v>0.2830167170702513</v>
       </c>
       <c r="L7">
-        <v>0.2718513786270711</v>
+        <v>0.2830167170702513</v>
       </c>
       <c r="M7">
-        <v>0.3495922682682692</v>
+        <v>0.3617351513282109</v>
       </c>
       <c r="N7">
-        <v>0.404637582040708</v>
+        <v>0.4044486526449128</v>
       </c>
       <c r="O7">
-        <v>0.404637582040708</v>
+        <v>0.4044486526449128</v>
       </c>
       <c r="P7">
-        <v>0.4410421468481968</v>
+        <v>0.4175899183709018</v>
       </c>
       <c r="Q7">
-        <v>0.4410421468481968</v>
+        <v>0.4175899183709018</v>
       </c>
       <c r="R7">
-        <v>0.6336409903690043</v>
+        <v>0.6785224084042829</v>
       </c>
       <c r="S7">
-        <v>0.6336409903690043</v>
+        <v>0.6785224084042829</v>
       </c>
       <c r="T7">
-        <v>0.6959544768069832</v>
+        <v>0.7327663538454924</v>
       </c>
       <c r="U7">
-        <v>0.6963724267217055</v>
+        <v>0.7327663538454924</v>
       </c>
       <c r="V7">
-        <v>0.7670331658044208</v>
+        <v>0.8002526278116709</v>
       </c>
       <c r="W7">
-        <v>0.7901981217133587</v>
+        <v>0.8002526278116709</v>
       </c>
       <c r="X7">
-        <v>0.7987362586893572</v>
+        <v>0.8002526278116709</v>
       </c>
       <c r="Y7">
-        <v>0.9527672902284867</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9641172918542651</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9843082908546433</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9916702325203061</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9916702325203061</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9916702325203061</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9964176936073514</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -2629,106 +2629,106 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1212657813052961</v>
+        <v>0.1456566186305793</v>
       </c>
       <c r="E8">
-        <v>0.1212657813052961</v>
+        <v>0.1456566186305793</v>
       </c>
       <c r="F8">
-        <v>0.2284039713369925</v>
+        <v>0.2691163007571497</v>
       </c>
       <c r="G8">
-        <v>0.2284039713369925</v>
+        <v>0.2691163007571497</v>
       </c>
       <c r="H8">
-        <v>0.2284039713369925</v>
+        <v>0.2691163007571497</v>
       </c>
       <c r="I8">
-        <v>0.2290178149524916</v>
+        <v>0.2691163007571497</v>
       </c>
       <c r="J8">
-        <v>0.2290178149524916</v>
+        <v>0.2691163007571497</v>
       </c>
       <c r="K8">
-        <v>0.2922229844709983</v>
+        <v>0.3235494625183614</v>
       </c>
       <c r="L8">
-        <v>0.2922229844709983</v>
+        <v>0.3235494625183614</v>
       </c>
       <c r="M8">
-        <v>0.3933919515658617</v>
+        <v>0.4376304430714543</v>
       </c>
       <c r="N8">
-        <v>0.4386065664040548</v>
+        <v>0.4637972717984523</v>
       </c>
       <c r="O8">
-        <v>0.4423573079084784</v>
+        <v>0.4637972717984523</v>
       </c>
       <c r="P8">
-        <v>0.4763080498075934</v>
+        <v>0.4722665703820661</v>
       </c>
       <c r="Q8">
-        <v>0.47903229849121</v>
+        <v>0.4722665703820661</v>
       </c>
       <c r="R8">
-        <v>0.6601461480739573</v>
+        <v>0.7119550551471536</v>
       </c>
       <c r="S8">
-        <v>0.6601461480739573</v>
+        <v>0.7119550551471536</v>
       </c>
       <c r="T8">
-        <v>0.7146447170798889</v>
+        <v>0.7527086125794554</v>
       </c>
       <c r="U8">
-        <v>0.7201544789045069</v>
+        <v>0.7527086125794554</v>
       </c>
       <c r="V8">
-        <v>0.7799853484179003</v>
+        <v>0.8018401541629273</v>
       </c>
       <c r="W8">
-        <v>0.805437639519068</v>
+        <v>0.8018401541629273</v>
       </c>
       <c r="X8">
-        <v>0.805437639519068</v>
+        <v>0.8018401541629273</v>
       </c>
       <c r="Y8">
-        <v>0.9601199300973582</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z8">
-        <v>0.9710330330752996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA8">
-        <v>0.9843131780161447</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB8">
-        <v>0.9916395933109108</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.9916395933109108</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.9916395933109108</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.9978216599134143</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2742,106 +2742,106 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0719265304267115</v>
+        <v>0.07125610148733889</v>
       </c>
       <c r="E9">
-        <v>0.07419149836180239</v>
+        <v>0.07125610148733889</v>
       </c>
       <c r="F9">
-        <v>0.23729338032936</v>
+        <v>0.2964393240576993</v>
       </c>
       <c r="G9">
-        <v>0.2392338863612437</v>
+        <v>0.2964393240576993</v>
       </c>
       <c r="H9">
-        <v>0.2392338863612437</v>
+        <v>0.2964393240576993</v>
       </c>
       <c r="I9">
-        <v>0.2392338863612437</v>
+        <v>0.2964393240576993</v>
       </c>
       <c r="J9">
-        <v>0.2392338863612437</v>
+        <v>0.2964393240576993</v>
       </c>
       <c r="K9">
-        <v>0.2574985593105957</v>
+        <v>0.2964393240576993</v>
       </c>
       <c r="L9">
-        <v>0.2716020634585423</v>
+        <v>0.2964393240576993</v>
       </c>
       <c r="M9">
-        <v>0.3145583397026039</v>
+        <v>0.3187862878448023</v>
       </c>
       <c r="N9">
-        <v>0.4123229135702577</v>
+        <v>0.4336635607789059</v>
       </c>
       <c r="O9">
-        <v>0.4123229135702577</v>
+        <v>0.4336635607789059</v>
       </c>
       <c r="P9">
-        <v>0.4407377444689312</v>
+        <v>0.4336635607789059</v>
       </c>
       <c r="Q9">
-        <v>0.4407377444689312</v>
+        <v>0.4336635607789059</v>
       </c>
       <c r="R9">
-        <v>0.6258159014297934</v>
+        <v>0.6959483100742028</v>
       </c>
       <c r="S9">
-        <v>0.6258159014297934</v>
+        <v>0.6959483100742028</v>
       </c>
       <c r="T9">
-        <v>0.6942967794792028</v>
+        <v>0.7613872763190921</v>
       </c>
       <c r="U9">
-        <v>0.6971089249696889</v>
+        <v>0.7613872763190921</v>
       </c>
       <c r="V9">
-        <v>0.7705125043072015</v>
+        <v>0.8351370110383969</v>
       </c>
       <c r="W9">
-        <v>0.7881236285803916</v>
+        <v>0.8351370110383969</v>
       </c>
       <c r="X9">
-        <v>0.8041181583520068</v>
+        <v>0.8351370110383969</v>
       </c>
       <c r="Y9">
-        <v>0.9314906739440438</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9571423870058545</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.978987974055042</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9850382284819056</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9850382284819056</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9850382284819056</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9896825738913653</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9957949197454733</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2855,91 +2855,91 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07437514967015284</v>
+        <v>0.07693010614487535</v>
       </c>
       <c r="E10">
-        <v>0.07437514967015284</v>
+        <v>0.07693010614487535</v>
       </c>
       <c r="F10">
-        <v>0.2085827430329464</v>
+        <v>0.2571501344863474</v>
       </c>
       <c r="G10">
-        <v>0.2085827430329464</v>
+        <v>0.2571501344863474</v>
       </c>
       <c r="H10">
-        <v>0.2085827430329464</v>
+        <v>0.2571501344863474</v>
       </c>
       <c r="I10">
-        <v>0.2085827430329464</v>
+        <v>0.2571501344863474</v>
       </c>
       <c r="J10">
-        <v>0.2133769074627986</v>
+        <v>0.2571501344863474</v>
       </c>
       <c r="K10">
-        <v>0.2443982081340794</v>
+        <v>0.2592376399676085</v>
       </c>
       <c r="L10">
-        <v>0.2648979489317373</v>
+        <v>0.2592376399676085</v>
       </c>
       <c r="M10">
-        <v>0.3387170925762223</v>
+        <v>0.3352079019946823</v>
       </c>
       <c r="N10">
-        <v>0.401972111853008</v>
+        <v>0.3929411087274721</v>
       </c>
       <c r="O10">
-        <v>0.401972111853008</v>
+        <v>0.3929411087274721</v>
       </c>
       <c r="P10">
-        <v>0.4258285549625227</v>
+        <v>0.3929411087274721</v>
       </c>
       <c r="Q10">
-        <v>0.4258285549625227</v>
+        <v>0.3929411087274721</v>
       </c>
       <c r="R10">
-        <v>0.6077965819508435</v>
+        <v>0.6556109112850554</v>
       </c>
       <c r="S10">
-        <v>0.6077965819508435</v>
+        <v>0.6556109112850554</v>
       </c>
       <c r="T10">
-        <v>0.6889501594127176</v>
+        <v>0.7442427504030779</v>
       </c>
       <c r="U10">
-        <v>0.7076278866533603</v>
+        <v>0.7442427504030779</v>
       </c>
       <c r="V10">
-        <v>0.7793071302451772</v>
+        <v>0.8165188609580171</v>
       </c>
       <c r="W10">
-        <v>0.8158002782104649</v>
+        <v>0.8280525238480078</v>
       </c>
       <c r="X10">
-        <v>0.8199651313166287</v>
+        <v>0.8280525238480078</v>
       </c>
       <c r="Y10">
-        <v>0.9493807081637223</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9562575747283611</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9829299406307497</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9856814998168479</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9856814998168479</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9856814998168479</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9870258401598248</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9907113640211479</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -2974,100 +2974,100 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1241551170640771</v>
+        <v>0.1712161527510687</v>
       </c>
       <c r="G11">
-        <v>0.158796783755836</v>
+        <v>0.1807363902884363</v>
       </c>
       <c r="H11">
-        <v>0.250029987238083</v>
+        <v>0.2924828329003166</v>
       </c>
       <c r="I11">
-        <v>0.2509036951855572</v>
+        <v>0.2924828329003166</v>
       </c>
       <c r="J11">
-        <v>0.2509036951855572</v>
+        <v>0.2924828329003166</v>
       </c>
       <c r="K11">
-        <v>0.2509036951855572</v>
+        <v>0.2924828329003166</v>
       </c>
       <c r="L11">
-        <v>0.2509036951855572</v>
+        <v>0.2924828329003166</v>
       </c>
       <c r="M11">
-        <v>0.302747609309452</v>
+        <v>0.3330769831368637</v>
       </c>
       <c r="N11">
-        <v>0.3074276374314123</v>
+        <v>0.3330769831368637</v>
       </c>
       <c r="O11">
-        <v>0.4232531418400654</v>
+        <v>0.4892466335344613</v>
       </c>
       <c r="P11">
-        <v>0.4528261445364311</v>
+        <v>0.4896109033347245</v>
       </c>
       <c r="Q11">
-        <v>0.4528261445364311</v>
+        <v>0.4896109033347245</v>
       </c>
       <c r="R11">
-        <v>0.4848847013398278</v>
+        <v>0.4944650452656887</v>
       </c>
       <c r="S11">
-        <v>0.50432008737697</v>
+        <v>0.4944650452656887</v>
       </c>
       <c r="T11">
-        <v>0.6191853447198095</v>
+        <v>0.6489001180384467</v>
       </c>
       <c r="U11">
-        <v>0.631317795698953</v>
+        <v>0.6489001180384467</v>
       </c>
       <c r="V11">
-        <v>0.6925882766897209</v>
+        <v>0.7065222942367052</v>
       </c>
       <c r="W11">
-        <v>0.739512655196902</v>
+        <v>0.7382298602709646</v>
       </c>
       <c r="X11">
-        <v>0.77666719761424</v>
+        <v>0.7522893233501449</v>
       </c>
       <c r="Y11">
-        <v>0.8517018764608604</v>
+        <v>0.834774964873753</v>
       </c>
       <c r="Z11">
-        <v>0.8538676484843964</v>
+        <v>0.834774964873753</v>
       </c>
       <c r="AA11">
-        <v>0.9747061350109896</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9747061350109896</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9921101301252463</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9921101301252463</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9921101301252463</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9921101301252463</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9921101301252463</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9940955926262496</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3129,34 +3129,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5266301052428328</v>
       </c>
       <c r="F2">
-        <v>0.6048944289611964</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H2">
-        <v>59</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
         <v>60</v>
+      </c>
+      <c r="K2">
+        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3170,34 +3170,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5088357623144888</v>
       </c>
       <c r="F3">
-        <v>0.5455353928818409</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H3">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
         <v>60</v>
+      </c>
+      <c r="K3">
+        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3211,34 +3211,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5494756454451275</v>
       </c>
       <c r="F4">
-        <v>0.5124965843124127</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H4">
-        <v>59</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
         <v>60</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3252,34 +3252,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5913769747522324</v>
       </c>
       <c r="F5">
-        <v>0.503370359849591</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>900</v>
       </c>
       <c r="H5">
-        <v>59</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
         <v>60</v>
+      </c>
+      <c r="K5">
+        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3293,34 +3293,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5738205054479447</v>
       </c>
       <c r="F6">
-        <v>0.5211410707906958</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>900</v>
       </c>
       <c r="H6">
-        <v>59</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
         <v>60</v>
+      </c>
+      <c r="K6">
+        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3334,34 +3334,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6785224084042829</v>
+      </c>
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6336409903690043</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="H7">
-        <v>59</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+      <c r="I7" t="s">
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
         <v>60</v>
+      </c>
+      <c r="K7">
+        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3375,34 +3375,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7119550551471536</v>
+      </c>
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.6601461480739573</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="H8">
-        <v>59</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+      <c r="I8" t="s">
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
         <v>60</v>
+      </c>
+      <c r="K8">
+        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3416,34 +3416,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.6959483100742028</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.6258159014297934</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="H9">
-        <v>59</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+      <c r="I9" t="s">
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
         <v>60</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3457,34 +3457,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.6556109112850554</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.6077965819508435</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>16</v>
       </c>
-      <c r="H10">
-        <v>59</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+      <c r="I10" t="s">
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
         <v>60</v>
+      </c>
+      <c r="K10">
+        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3498,34 +3498,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.6489001180384467</v>
       </c>
       <c r="F11">
-        <v>0.50432008737697</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
         <v>60</v>
+      </c>
+      <c r="K11">
+        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -3593,34 +3593,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7066333324614752</v>
       </c>
       <c r="F2">
-        <v>0.8057220335713928</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H2">
-        <v>59</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
         <v>60</v>
+      </c>
+      <c r="K2">
+        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3634,34 +3634,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.880092202049227</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8469378069392005</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+      <c r="I3" t="s">
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
         <v>60</v>
+      </c>
+      <c r="K3">
+        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3675,34 +3675,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.774050648181198</v>
       </c>
       <c r="F4">
-        <v>0.7145504429329798</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H4">
-        <v>59</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
         <v>60</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3716,34 +3716,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7887720707832959</v>
       </c>
       <c r="F5">
-        <v>0.739721589226093</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H5">
-        <v>59</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
         <v>60</v>
+      </c>
+      <c r="K5">
+        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3757,34 +3757,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7088036548174773</v>
       </c>
       <c r="F6">
-        <v>0.7575088413151986</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H6">
-        <v>59</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
         <v>60</v>
+      </c>
+      <c r="K6">
+        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3798,34 +3798,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7327663538454924</v>
       </c>
       <c r="F7">
-        <v>0.7670331658044208</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>59</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
         <v>60</v>
+      </c>
+      <c r="K7">
+        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3839,34 +3839,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7119550551471536</v>
       </c>
       <c r="F8">
-        <v>0.7146447170798889</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H8">
-        <v>59</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
         <v>60</v>
+      </c>
+      <c r="K8">
+        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3880,34 +3880,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7613872763190921</v>
       </c>
       <c r="F9">
-        <v>0.7705125043072015</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H9">
-        <v>59</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
         <v>60</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3921,34 +3921,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7442427504030779</v>
       </c>
       <c r="F10">
-        <v>0.7076278866533603</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H10">
-        <v>59</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
         <v>60</v>
+      </c>
+      <c r="K10">
+        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3962,34 +3962,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7065222942367052</v>
       </c>
       <c r="F11">
-        <v>0.739512655196902</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
         <v>60</v>
+      </c>
+      <c r="K11">
+        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4057,34 +4057,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.8971416981873516</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8057220335713928</v>
-      </c>
       <c r="G2">
+        <v>900</v>
+      </c>
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>59</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+      <c r="I2" t="s">
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
         <v>60</v>
+      </c>
+      <c r="K2">
+        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4098,34 +4098,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.880092202049227</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8469378069392005</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+      <c r="I3" t="s">
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
         <v>60</v>
+      </c>
+      <c r="K3">
+        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4139,34 +4139,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.800316438735559</v>
       </c>
       <c r="F4">
-        <v>0.8593216350529127</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H4">
-        <v>59</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
         <v>60</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4180,34 +4180,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8142054516875052</v>
       </c>
       <c r="F5">
-        <v>0.8194387383744792</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H5">
-        <v>59</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
         <v>60</v>
+      </c>
+      <c r="K5">
+        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4221,34 +4221,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.9654736834762226</v>
+      </c>
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9234762172688262</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="H6">
-        <v>59</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+      <c r="I6" t="s">
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
         <v>60</v>
+      </c>
+      <c r="K6">
+        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4262,34 +4262,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8002526278116709</v>
       </c>
       <c r="F7">
-        <v>0.9527672902284867</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>59</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
         <v>60</v>
+      </c>
+      <c r="K7">
+        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4303,34 +4303,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8018401541629273</v>
       </c>
       <c r="F8">
-        <v>0.805437639519068</v>
+        <v>21</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H8">
-        <v>59</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
         <v>60</v>
+      </c>
+      <c r="K8">
+        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4344,34 +4344,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8351370110383969</v>
       </c>
       <c r="F9">
-        <v>0.8041181583520068</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H9">
-        <v>59</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
         <v>60</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4385,34 +4385,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8165188609580171</v>
       </c>
       <c r="F10">
-        <v>0.8158002782104649</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H10">
-        <v>59</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
         <v>60</v>
+      </c>
+      <c r="K10">
+        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4426,34 +4426,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.834774964873753</v>
+      </c>
+      <c r="F11">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8517018764608604</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>21</v>
       </c>
-      <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+      <c r="I11" t="s">
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
         <v>60</v>
+      </c>
+      <c r="K11">
+        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4521,34 +4521,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>26</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9625282872979025</v>
-      </c>
       <c r="G2">
+        <v>900</v>
+      </c>
+      <c r="H2">
         <v>22</v>
       </c>
-      <c r="H2">
-        <v>59</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+      <c r="I2" t="s">
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
         <v>60</v>
+      </c>
+      <c r="K2">
+        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4562,34 +4562,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9996049478167688</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="H3">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+      <c r="I3" t="s">
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
         <v>60</v>
+      </c>
+      <c r="K3">
+        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4603,34 +4603,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9319580009531421</v>
       </c>
       <c r="F4">
-        <v>0.9553907149151949</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H4">
-        <v>59</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
         <v>60</v>
+      </c>
+      <c r="K4">
+        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4644,34 +4644,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9497250684102491</v>
       </c>
       <c r="F5">
-        <v>0.9066895684917495</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H5">
-        <v>59</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
         <v>60</v>
+      </c>
+      <c r="K5">
+        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4685,34 +4685,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>0.9654736834762226</v>
+      </c>
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9234762172688262</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="H6">
-        <v>59</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+      <c r="I6" t="s">
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
         <v>60</v>
+      </c>
+      <c r="K6">
+        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4726,34 +4726,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9527672902284867</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>23</v>
       </c>
-      <c r="H7">
-        <v>59</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+      <c r="I7" t="s">
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
         <v>60</v>
+      </c>
+      <c r="K7">
+        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4767,34 +4767,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F8">
         <v>24</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9601199300973582</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>23</v>
       </c>
-      <c r="H8">
-        <v>59</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+      <c r="I8" t="s">
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
         <v>60</v>
+      </c>
+      <c r="K8">
+        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4808,34 +4808,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>24</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9314906739440438</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>23</v>
       </c>
-      <c r="H9">
-        <v>59</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+      <c r="I9" t="s">
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
         <v>60</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4849,34 +4849,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9493807081637223</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>23</v>
       </c>
-      <c r="H10">
-        <v>59</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+      <c r="I10" t="s">
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
         <v>60</v>
+      </c>
+      <c r="K10">
+        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4890,34 +4890,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9747061350109896</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>23</v>
       </c>
-      <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+      <c r="I11" t="s">
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
         <v>60</v>
+      </c>
+      <c r="K11">
+        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
